--- a/excel_1_6_0.1_0.2_0.25.xlsx
+++ b/excel_1_6_0.1_0.2_0.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\final Emag\project emag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1791D206-8BBA-47D1-A2D2-19F22DD805E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A5078-AF7E-4734-8B51-91711BFCA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AAC43CCE-D1B0-4A7E-B54B-59AAD56CFD82}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAC43CCE-D1B0-4A7E-B54B-59AAD56CFD82}"/>
   </bookViews>
   <sheets>
     <sheet name="0.1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>E at point above #1  pointing outward from #1</t>
   </si>
@@ -99,13 +99,10 @@
     <t>23.5 pF/m</t>
   </si>
   <si>
-    <t>5.31 fF/m</t>
-  </si>
-  <si>
     <t>23.3 pF/m</t>
   </si>
   <si>
-    <t>5.18 fF/m</t>
+    <t>5.20 fF/m</t>
   </si>
 </sst>
 </file>
@@ -515,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C4F23-A479-4F7D-9C3D-E8FF6800CC6E}">
   <dimension ref="A3:CP194"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="V140" sqref="V140"/>
     </sheetView>
   </sheetViews>
@@ -13131,123 +13128,123 @@
       </c>
       <c r="E48">
         <f t="shared" ref="E48:E76" ca="1" si="95">0.25*(F48+E47+D48+E49)</f>
-        <v>1.1842412500331114E-7</v>
+        <v>1.1842412500331336E-7</v>
       </c>
       <c r="F48">
         <f t="shared" ref="F48:F76" ca="1" si="96">0.25*(G48+F47+E48+F49)</f>
-        <v>2.4022838367857989E-7</v>
+        <v>2.4022838367858413E-7</v>
       </c>
       <c r="G48">
         <f t="shared" ref="G48:G76" ca="1" si="97">0.25*(H48+G47+F48+G49)</f>
-        <v>3.6945101846057449E-7</v>
+        <v>3.6945101846058063E-7</v>
       </c>
       <c r="H48">
         <f t="shared" ref="H48:H76" ca="1" si="98">0.25*(I48+H47+G48+H49)</f>
-        <v>5.1153867382995411E-7</v>
+        <v>5.1153867382996194E-7</v>
       </c>
       <c r="I48">
         <f t="shared" ref="I48:I76" ca="1" si="99">0.25*(J48+I47+H48+I49)</f>
-        <v>6.7427329203079393E-7</v>
+        <v>6.7427329203080325E-7</v>
       </c>
       <c r="J48">
         <f t="shared" ref="J48:J76" ca="1" si="100">0.25*(K48+J47+I48+J49)</f>
-        <v>8.6893944779912932E-7</v>
+        <v>8.6893944779913991E-7</v>
       </c>
       <c r="K48">
         <f t="shared" ref="K48:K76" ca="1" si="101">0.25*(L48+K47+J48+K49)</f>
-        <v>1.111755755984824E-6</v>
+        <v>1.1117557559848359E-6</v>
       </c>
       <c r="L48">
         <f t="shared" ref="L48:L76" ca="1" si="102">0.25*(M48+L47+K48+L49)</f>
-        <v>1.4255338667409264E-6</v>
+        <v>1.4255338667409391E-6</v>
       </c>
       <c r="M48">
         <f t="shared" ref="M48:M76" ca="1" si="103">0.25*(N48+M47+L48+M49)</f>
-        <v>1.8414679440396865E-6</v>
+        <v>1.8414679440397007E-6</v>
       </c>
       <c r="N48">
         <f t="shared" ref="N48:N55" ca="1" si="104">0.25*(O48+N47+M48+N49)</f>
-        <v>2.4009431289146155E-6</v>
+        <v>2.4009431289146303E-6</v>
       </c>
       <c r="O48">
         <f t="shared" ref="O48:O56" ca="1" si="105">0.25*(P48+O47+N48+O49)</f>
-        <v>3.1573282109862677E-6</v>
+        <v>3.1573282109862842E-6</v>
       </c>
       <c r="P48">
         <f t="shared" ref="P48:P56" ca="1" si="106">0.25*(Q48+P47+O48+P49)</f>
-        <v>4.177829536964533E-6</v>
+        <v>4.1778295369645516E-6</v>
       </c>
       <c r="Q48">
         <f t="shared" ref="Q48:Q56" ca="1" si="107">0.25*(R48+Q47+P48+Q49)</f>
-        <v>5.5453779579838227E-6</v>
+        <v>5.5453779579838447E-6</v>
       </c>
       <c r="R48">
         <f t="shared" ref="R48:R56" ca="1" si="108">0.25*(S48+R47+Q48+R49)</f>
-        <v>7.3599711519970153E-6</v>
+        <v>7.3599711519970398E-6</v>
       </c>
       <c r="S48">
         <f t="shared" ref="S48:S56" ca="1" si="109">0.25*(T48+S47+R48+S49)</f>
-        <v>9.7382676388015754E-6</v>
+        <v>9.7382676388016025E-6</v>
       </c>
       <c r="T48">
         <f t="shared" ref="T48:T56" ca="1" si="110">0.25*(U48+T47+S48+T49)</f>
-        <v>1.2809780303015694E-5</v>
+        <v>1.2809780303015723E-5</v>
       </c>
       <c r="U48">
         <f t="shared" ref="U48:U56" ca="1" si="111">0.25*(V48+U47+T48+U49)</f>
-        <v>1.670799708708107E-5</v>
+        <v>1.6707997087081104E-5</v>
       </c>
       <c r="V48">
         <f t="shared" ref="V48:V56" ca="1" si="112">0.25*(W48+V47+U48+V49)</f>
-        <v>2.1555680590347723E-5</v>
+        <v>2.1555680590347764E-5</v>
       </c>
       <c r="W48">
         <f t="shared" ref="W48:W56" ca="1" si="113">0.25*(X48+W47+V48+W49)</f>
-        <v>2.7446223007250132E-5</v>
+        <v>2.7446223007250186E-5</v>
       </c>
       <c r="X48">
         <f t="shared" ref="X48:X56" ca="1" si="114">0.25*(Y48+X47+W48+X49)</f>
-        <v>3.4427651599176594E-5</v>
+        <v>3.4427651599176648E-5</v>
       </c>
       <c r="Y48">
         <f t="shared" ref="Y48:Y76" ca="1" si="115">0.25*(Z48+Y47+X48+Y49)</f>
-        <v>4.2501330827576229E-5</v>
+        <v>4.250133082757629E-5</v>
       </c>
       <c r="Z48">
         <f t="shared" ref="Z48:Z76" ca="1" si="116">0.25*(AA48+Z47+Y48+Z49)</f>
-        <v>5.1649116512201979E-5</v>
+        <v>5.1649116512202033E-5</v>
       </c>
       <c r="AA48">
         <f t="shared" ref="AA48:AA76" ca="1" si="117">0.25*(AB48+AA47+Z48+AA49)</f>
-        <v>6.1895323308363239E-5</v>
+        <v>6.1895323308363293E-5</v>
       </c>
       <c r="AB48">
         <f t="shared" ref="AB48:AB76" ca="1" si="118">0.25*(AC48+AB47+AA48+AB49)</f>
-        <v>7.339690941321471E-5</v>
+        <v>7.3396909413214764E-5</v>
       </c>
       <c r="AC48">
         <f t="shared" ref="AC48:AC76" ca="1" si="119">0.25*(AD48+AC47+AB48+AC49)</f>
-        <v>8.6553946372898731E-5</v>
+        <v>8.6553946372898785E-5</v>
       </c>
       <c r="AD48">
         <f t="shared" ref="AD48:AD76" ca="1" si="120">0.25*(AE48+AD47+AC48+AD49)</f>
-        <v>1.0213722994603585E-4</v>
+        <v>1.021372299460359E-4</v>
       </c>
       <c r="AE48">
         <f t="shared" ref="AE48:AE76" ca="1" si="121">0.25*(AF48+AE47+AD48+AE49)</f>
-        <v>1.214307560548171E-4</v>
+        <v>1.2143075605481715E-4</v>
       </c>
       <c r="AF48">
         <f t="shared" ref="AF48:AF76" ca="1" si="122">0.25*(AG48+AF47+AE48+AF49)</f>
-        <v>1.46380639949572E-4</v>
+        <v>1.4638063994957209E-4</v>
       </c>
       <c r="AG48">
         <f t="shared" ref="AG48:AG76" ca="1" si="123">0.25*(AH48+AG47+AF48+AG49)</f>
-        <v>1.797330298225116E-4</v>
+        <v>1.7973302982251166E-4</v>
       </c>
       <c r="AH48">
         <f t="shared" ref="AH48:AH56" ca="1" si="124">0.25*(AI48+AH47+AG48+AH49)</f>
-        <v>2.2514078759052053E-4</v>
+        <v>2.2514078759052055E-4</v>
       </c>
       <c r="AI48">
         <f t="shared" ref="AI48:AI56" ca="1" si="125">0.25*(AJ48+AI47+AH48+AI49)</f>
@@ -13498,123 +13495,123 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="95"/>
-        <v>2.3346811633466699E-7</v>
+        <v>2.3346811633467125E-7</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="96"/>
-        <v>4.7303839125043788E-7</v>
+        <v>4.7303839125044614E-7</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="97"/>
-        <v>7.2603701633376935E-7</v>
+        <v>7.260370163337811E-7</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="98"/>
-        <v>1.0024303848284544E-6</v>
+        <v>1.0024303848284694E-6</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="99"/>
-        <v>1.3166150464941001E-6</v>
+        <v>1.3166150464941181E-6</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="100"/>
-        <v>1.6897287431809075E-6</v>
+        <v>1.6897287431809282E-6</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="101"/>
-        <v>2.1525497093992506E-6</v>
+        <v>2.1525497093992726E-6</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="102"/>
-        <v>2.7489117669392043E-6</v>
+        <v>2.7489117669392288E-6</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="103"/>
-        <v>3.539394780503216E-6</v>
+        <v>3.5393947805032422E-6</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="104"/>
-        <v>4.6049763606325199E-6</v>
+        <v>4.6049763606325487E-6</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="105"/>
-        <v>6.050540178065937E-6</v>
+        <v>6.0505401780659684E-6</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="106"/>
-        <v>8.0086119788880538E-6</v>
+        <v>8.0086119788880894E-6</v>
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="107"/>
-        <v>1.0643711142973759E-5</v>
+        <v>1.0643711142973799E-5</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="108"/>
-        <v>1.4156239011202683E-5</v>
+        <v>1.4156239011202727E-5</v>
       </c>
       <c r="S49">
         <f t="shared" ca="1" si="109"/>
-        <v>1.8783319100193622E-5</v>
+        <v>1.8783319100193669E-5</v>
       </c>
       <c r="T49">
         <f t="shared" ca="1" si="110"/>
-        <v>2.4792856486180151E-5</v>
+        <v>2.4792856486180209E-5</v>
       </c>
       <c r="U49">
         <f t="shared" ca="1" si="111"/>
-        <v>3.2466527454960897E-5</v>
+        <v>3.2466527454960965E-5</v>
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="112"/>
-        <v>4.2068502267059714E-5</v>
+        <v>4.2068502267059789E-5</v>
       </c>
       <c r="W49">
         <f t="shared" ca="1" si="113"/>
-        <v>5.3801559839476259E-5</v>
+        <v>5.3801559839476347E-5</v>
       </c>
       <c r="X49">
         <f t="shared" ca="1" si="114"/>
-        <v>6.7763052561880068E-5</v>
+        <v>6.776305256188015E-5</v>
       </c>
       <c r="Y49">
         <f t="shared" ca="1" si="115"/>
-        <v>8.3928555198926397E-5</v>
+        <v>8.3928555198926506E-5</v>
       </c>
       <c r="Z49">
         <f t="shared" ca="1" si="116"/>
-        <v>1.0219981191286847E-4</v>
+        <v>1.0219981191286859E-4</v>
       </c>
       <c r="AA49">
         <f t="shared" ca="1" si="117"/>
-        <v>1.2253526730803631E-4</v>
+        <v>1.2253526730803644E-4</v>
       </c>
       <c r="AB49">
         <f t="shared" ca="1" si="118"/>
-        <v>1.4513836797159691E-4</v>
+        <v>1.4513836797159702E-4</v>
       </c>
       <c r="AC49">
         <f t="shared" ca="1" si="119"/>
-        <v>1.7068164613234441E-4</v>
+        <v>1.7068164613234454E-4</v>
       </c>
       <c r="AD49">
         <f t="shared" ca="1" si="120"/>
-        <v>2.0056421735642759E-4</v>
+        <v>2.0056421735642772E-4</v>
       </c>
       <c r="AE49">
         <f t="shared" ca="1" si="121"/>
-        <v>2.3720515432366053E-4</v>
+        <v>2.3720515432366067E-4</v>
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="122"/>
-        <v>2.843587739209594E-4</v>
+        <v>2.8435877392095951E-4</v>
       </c>
       <c r="AG49">
         <f t="shared" ca="1" si="123"/>
-        <v>3.474106917499539E-4</v>
+        <v>3.4741069174995401E-4</v>
       </c>
       <c r="AH49">
         <f t="shared" ca="1" si="124"/>
-        <v>4.3359966706284133E-4</v>
+        <v>4.3359966706284139E-4</v>
       </c>
       <c r="AI49">
         <f t="shared" ca="1" si="125"/>
@@ -13865,115 +13862,115 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="95"/>
-        <v>3.4240994908492282E-7</v>
+        <v>3.4240994908492901E-7</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="96"/>
-        <v>6.9242004865474166E-7</v>
+        <v>6.9242004865475373E-7</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="97"/>
-        <v>1.0592282707956191E-6</v>
+        <v>1.0592282707956363E-6</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="98"/>
-        <v>1.4555308026560046E-6</v>
+        <v>1.4555308026560264E-6</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="99"/>
-        <v>1.9000277659362569E-6</v>
+        <v>1.9000277659362829E-6</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="100"/>
-        <v>2.4208107690311651E-6</v>
+        <v>2.4208107690311943E-6</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="101"/>
-        <v>3.0598025714920804E-6</v>
+        <v>3.0598025714921126E-6</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="102"/>
-        <v>3.8781687111134415E-6</v>
+        <v>3.8781687111134763E-6</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="103"/>
-        <v>4.96222305040147E-6</v>
+        <v>4.9622230504015064E-6</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="104"/>
-        <v>6.429027355046331E-6</v>
+        <v>6.4290273550463717E-6</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="105"/>
-        <v>8.4312441617569267E-6</v>
+        <v>8.431244161756969E-6</v>
       </c>
       <c r="P50">
         <f t="shared" ca="1" si="106"/>
-        <v>1.1162367057548009E-5</v>
+        <v>1.1162367057548057E-5</v>
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="107"/>
-        <v>1.4864615623820509E-5</v>
+        <v>1.4864615623820561E-5</v>
       </c>
       <c r="R50">
         <f t="shared" ca="1" si="108"/>
-        <v>1.9837954649646369E-5</v>
+        <v>1.983795464964643E-5</v>
       </c>
       <c r="S50">
         <f t="shared" ca="1" si="109"/>
-        <v>2.64459132645901E-5</v>
+        <v>2.6445913264590168E-5</v>
       </c>
       <c r="T50">
         <f t="shared" ca="1" si="110"/>
-        <v>3.5111799086550432E-5</v>
+        <v>3.511179908655052E-5</v>
       </c>
       <c r="U50">
         <f t="shared" ca="1" si="111"/>
-        <v>4.6296753979522695E-5</v>
+        <v>4.629675397952279E-5</v>
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="112"/>
-        <v>6.0450241183454033E-5</v>
+        <v>6.0450241183454134E-5</v>
       </c>
       <c r="W50">
         <f t="shared" ca="1" si="113"/>
-        <v>7.792846152171519E-5</v>
+        <v>7.7928461521715298E-5</v>
       </c>
       <c r="X50">
         <f t="shared" ca="1" si="114"/>
-        <v>9.889444360994105E-5</v>
+        <v>9.8894443609941186E-5</v>
       </c>
       <c r="Y50">
         <f t="shared" ca="1" si="115"/>
-        <v>1.2325002549338094E-4</v>
+        <v>1.2325002549338107E-4</v>
       </c>
       <c r="Z50">
         <f t="shared" ca="1" si="116"/>
-        <v>1.506863086323093E-4</v>
+        <v>1.5068630863230943E-4</v>
       </c>
       <c r="AA50">
         <f t="shared" ca="1" si="117"/>
-        <v>1.8090756603931669E-4</v>
+        <v>1.8090756603931685E-4</v>
       </c>
       <c r="AB50">
         <f t="shared" ca="1" si="118"/>
-        <v>2.1393964903279226E-4</v>
+        <v>2.1393964903279248E-4</v>
       </c>
       <c r="AC50">
         <f t="shared" ca="1" si="119"/>
-        <v>2.5047005282845448E-4</v>
+        <v>2.5047005282845464E-4</v>
       </c>
       <c r="AD50">
         <f t="shared" ca="1" si="120"/>
-        <v>2.9223283902366968E-4</v>
+        <v>2.9223283902366984E-4</v>
       </c>
       <c r="AE50">
         <f t="shared" ca="1" si="121"/>
-        <v>3.4246686996243817E-4</v>
+        <v>3.4246686996243839E-4</v>
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="122"/>
-        <v>4.0643860966065113E-4</v>
+        <v>4.064386096606513E-4</v>
       </c>
       <c r="AG50">
         <f t="shared" ca="1" si="123"/>
@@ -14232,123 +14229,123 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="95"/>
-        <v>4.4375163135028791E-7</v>
+        <v>4.437516313502959E-7</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="96"/>
-        <v>8.9500358348799567E-7</v>
+        <v>8.9500358348801113E-7</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="97"/>
-        <v>1.3629252155379722E-6</v>
+        <v>1.362925215537994E-6</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="98"/>
-        <v>1.8604367890637023E-6</v>
+        <v>1.8604367890637301E-6</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="99"/>
-        <v>2.4071544455637744E-6</v>
+        <v>2.4071544455638074E-6</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="100"/>
-        <v>3.0336839955154334E-6</v>
+        <v>3.0336839955154699E-6</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="101"/>
-        <v>3.7876810964244853E-6</v>
+        <v>3.7876810964245251E-6</v>
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="102"/>
-        <v>4.7417374556210326E-6</v>
+        <v>4.7417374556210749E-6</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="103"/>
-        <v>6.0023013549429134E-6</v>
+        <v>6.0023013549429583E-6</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="104"/>
-        <v>7.717665847394432E-6</v>
+        <v>7.7176658473944812E-6</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="105"/>
-        <v>1.0083042056367457E-5</v>
+        <v>1.0083042056367508E-5</v>
       </c>
       <c r="P51">
         <f t="shared" ca="1" si="106"/>
-        <v>1.3344996465726579E-5</v>
+        <v>1.3344996465726635E-5</v>
       </c>
       <c r="Q51">
         <f t="shared" ca="1" si="107"/>
-        <v>1.7814429645113922E-5</v>
+        <v>1.7814429645113987E-5</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="108"/>
-        <v>2.3885050698972224E-5</v>
+        <v>2.3885050698972299E-5</v>
       </c>
       <c r="S51">
         <f t="shared" ca="1" si="109"/>
-        <v>3.2050580221970018E-5</v>
+        <v>3.2050580221970106E-5</v>
       </c>
       <c r="T51">
         <f t="shared" ca="1" si="110"/>
-        <v>4.2911672615908835E-5</v>
+        <v>4.2911672615908943E-5</v>
       </c>
       <c r="U51">
         <f t="shared" ca="1" si="111"/>
-        <v>5.7158448193125487E-5</v>
+        <v>5.7158448193125595E-5</v>
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="112"/>
-        <v>7.5507246965518586E-5</v>
+        <v>7.5507246965518721E-5</v>
       </c>
       <c r="W51">
         <f t="shared" ca="1" si="113"/>
-        <v>9.8567601453989471E-5</v>
+        <v>9.856760145398962E-5</v>
       </c>
       <c r="X51">
         <f t="shared" ca="1" si="114"/>
-        <v>1.2663623486278808E-4</v>
+        <v>1.2663623486278827E-4</v>
       </c>
       <c r="Y51">
         <f t="shared" ca="1" si="115"/>
-        <v>1.5949079453234707E-4</v>
+        <v>1.5949079453234728E-4</v>
       </c>
       <c r="Z51">
         <f t="shared" ca="1" si="116"/>
-        <v>1.9638783108367119E-4</v>
+        <v>1.9638783108367135E-4</v>
       </c>
       <c r="AA51">
         <f t="shared" ca="1" si="117"/>
-        <v>2.3646903918412898E-4</v>
+        <v>2.364690391841292E-4</v>
       </c>
       <c r="AB51">
         <f t="shared" ca="1" si="118"/>
-        <v>2.7924260929180112E-4</v>
+        <v>2.7924260929180133E-4</v>
       </c>
       <c r="AC51">
         <f t="shared" ca="1" si="119"/>
-        <v>3.2502607712501169E-4</v>
+        <v>3.2502607712501196E-4</v>
       </c>
       <c r="AD51">
         <f t="shared" ca="1" si="120"/>
-        <v>3.7543021594735858E-4</v>
+        <v>3.7543021594735879E-4</v>
       </c>
       <c r="AE51">
         <f t="shared" ca="1" si="121"/>
-        <v>4.3399087684177143E-4</v>
+        <v>4.3399087684177165E-4</v>
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="122"/>
-        <v>5.0697749856570351E-4</v>
+        <v>5.0697749856570373E-4</v>
       </c>
       <c r="AG51">
         <f t="shared" ca="1" si="123"/>
-        <v>6.0424997590888155E-4</v>
+        <v>6.0424997590888165E-4</v>
       </c>
       <c r="AH51">
         <f t="shared" ca="1" si="124"/>
-        <v>7.3984172244905846E-4</v>
+        <v>7.3984172244905856E-4</v>
       </c>
       <c r="AI51">
         <f t="shared" ca="1" si="125"/>
@@ -14599,115 +14596,115 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="95"/>
-        <v>5.3759299282823965E-7</v>
+        <v>5.3759299282824908E-7</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="96"/>
-        <v>1.080917438408992E-6</v>
+        <v>1.0809174384090102E-6</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="97"/>
-        <v>1.6370322188045864E-6</v>
+        <v>1.637032218804612E-6</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="98"/>
-        <v>2.2161366924970757E-6</v>
+        <v>2.2161366924971083E-6</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="99"/>
-        <v>2.8344692317397253E-6</v>
+        <v>2.8344692317397634E-6</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="100"/>
-        <v>3.5190896710423315E-6</v>
+        <v>3.5190896710423735E-6</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="101"/>
-        <v>4.3155003630694171E-6</v>
+        <v>4.3155003630694628E-6</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="102"/>
-        <v>5.2987986600033151E-6</v>
+        <v>5.2987986600033634E-6</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="103"/>
-        <v>6.5875790663547445E-6</v>
+        <v>6.5875790663547936E-6</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="104"/>
-        <v>8.3562926232210603E-6</v>
+        <v>8.3562926232211111E-6</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="105"/>
-        <v>1.0838261750591915E-5</v>
+        <v>1.0838261750591971E-5</v>
       </c>
       <c r="P52">
         <f t="shared" ca="1" si="106"/>
-        <v>1.432014710387696E-5</v>
+        <v>1.4320147103877023E-5</v>
       </c>
       <c r="Q52">
         <f t="shared" ca="1" si="107"/>
-        <v>1.9163055791936418E-5</v>
+        <v>1.916305579193649E-5</v>
       </c>
       <c r="R52">
         <f t="shared" ca="1" si="108"/>
-        <v>2.5837238279158632E-5</v>
+        <v>2.583723827915871E-5</v>
       </c>
       <c r="S52">
         <f t="shared" ca="1" si="109"/>
-        <v>3.4959684308408958E-5</v>
+        <v>3.4959684308409053E-5</v>
       </c>
       <c r="T52">
         <f t="shared" ca="1" si="110"/>
-        <v>4.732586296198947E-5</v>
+        <v>4.7325862961989585E-5</v>
       </c>
       <c r="U52">
         <f t="shared" ca="1" si="111"/>
-        <v>6.3918119211551892E-5</v>
+        <v>6.3918119211552E-5</v>
       </c>
       <c r="V52">
         <f t="shared" ca="1" si="112"/>
-        <v>8.5852697031505462E-5</v>
+        <v>8.5852697031505584E-5</v>
       </c>
       <c r="W52">
         <f t="shared" ca="1" si="113"/>
-        <v>1.141984624659361E-4</v>
+        <v>1.1419846246593627E-4</v>
       </c>
       <c r="X52">
         <f t="shared" ca="1" si="114"/>
-        <v>1.4959209985487487E-4</v>
+        <v>1.4959209985487506E-4</v>
       </c>
       <c r="Y52">
         <f t="shared" ca="1" si="115"/>
-        <v>1.9168908668954824E-4</v>
+        <v>1.9168908668954848E-4</v>
       </c>
       <c r="Z52">
         <f t="shared" ca="1" si="116"/>
-        <v>2.3890518198589942E-4</v>
+        <v>2.3890518198589969E-4</v>
       </c>
       <c r="AA52">
         <f t="shared" ca="1" si="117"/>
-        <v>2.8933815032172711E-4</v>
+        <v>2.8933815032172738E-4</v>
       </c>
       <c r="AB52">
         <f t="shared" ca="1" si="118"/>
-        <v>3.4153567182527159E-4</v>
+        <v>3.4153567182527186E-4</v>
       </c>
       <c r="AC52">
         <f t="shared" ca="1" si="119"/>
-        <v>3.9496143043243274E-4</v>
+        <v>3.9496143043243307E-4</v>
       </c>
       <c r="AD52">
         <f t="shared" ca="1" si="120"/>
-        <v>4.5047107079898162E-4</v>
+        <v>4.5047107079898194E-4</v>
       </c>
       <c r="AE52">
         <f t="shared" ca="1" si="121"/>
-        <v>5.1108892289158556E-4</v>
+        <v>5.1108892289158589E-4</v>
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="122"/>
-        <v>5.8323053185151022E-4</v>
+        <v>5.8323053185151044E-4</v>
       </c>
       <c r="AG52">
         <f t="shared" ca="1" si="123"/>
@@ -14966,115 +14963,115 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="95"/>
-        <v>6.2570290155368631E-7</v>
+        <v>6.2570290155369701E-7</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="96"/>
-        <v>1.2540409585151594E-6</v>
+        <v>1.2540409585151799E-6</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="97"/>
-        <v>1.8881495287743214E-6</v>
+        <v>1.888149528774351E-6</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="98"/>
-        <v>2.5326085303803084E-6</v>
+        <v>2.5326085303803457E-6</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="99"/>
-        <v>3.1954961178557425E-6</v>
+        <v>3.1954961178557849E-6</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="100"/>
-        <v>3.8927050938447745E-6</v>
+        <v>3.8927050938448211E-6</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="101"/>
-        <v>4.6564320248075647E-6</v>
+        <v>4.6564320248076139E-6</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="102"/>
-        <v>5.5503777549680941E-6</v>
+        <v>5.5503777549681458E-6</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="103"/>
-        <v>6.6929236272517172E-6</v>
+        <v>6.692923627251768E-6</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="104"/>
-        <v>8.2816638285431729E-6</v>
+        <v>8.2816638285432254E-6</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="105"/>
-        <v>1.0593565218902215E-5</v>
+        <v>1.0593565218902271E-5</v>
       </c>
       <c r="P53">
         <f t="shared" ca="1" si="106"/>
-        <v>1.3934274407252965E-5</v>
+        <v>1.3934274407253025E-5</v>
       </c>
       <c r="Q53">
         <f t="shared" ca="1" si="107"/>
-        <v>1.86804081395962E-5</v>
+        <v>1.8680408139596264E-5</v>
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="108"/>
-        <v>2.534116231731697E-5</v>
+        <v>2.5341162317317041E-5</v>
       </c>
       <c r="S53">
         <f t="shared" ca="1" si="109"/>
-        <v>3.4625055770517763E-5</v>
+        <v>3.4625055770517857E-5</v>
       </c>
       <c r="T53">
         <f t="shared" ca="1" si="110"/>
-        <v>4.7513975712088257E-5</v>
+        <v>4.7513975712088365E-5</v>
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="111"/>
-        <v>6.5335468659587223E-5</v>
+        <v>6.5335468659587332E-5</v>
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="112"/>
-        <v>8.9786959483015321E-5</v>
+        <v>8.9786959483015443E-5</v>
       </c>
       <c r="W53">
         <f t="shared" ca="1" si="113"/>
-        <v>1.2278145152337468E-4</v>
+        <v>1.2278145152337484E-4</v>
       </c>
       <c r="X53">
         <f t="shared" ca="1" si="114"/>
-        <v>1.6584461540122716E-4</v>
+        <v>1.6584461540122738E-4</v>
       </c>
       <c r="Y53">
         <f t="shared" ca="1" si="115"/>
-        <v>2.1876827038507174E-4</v>
+        <v>2.1876827038507201E-4</v>
       </c>
       <c r="Z53">
         <f t="shared" ca="1" si="116"/>
-        <v>2.7820565984865132E-4</v>
+        <v>2.7820565984865159E-4</v>
       </c>
       <c r="AA53">
         <f t="shared" ca="1" si="117"/>
-        <v>3.4044270829160868E-4</v>
+        <v>3.4044270829160895E-4</v>
       </c>
       <c r="AB53">
         <f t="shared" ca="1" si="118"/>
-        <v>4.026004972551255E-4</v>
+        <v>4.0260049725512578E-4</v>
       </c>
       <c r="AC53">
         <f t="shared" ca="1" si="119"/>
-        <v>4.6281290198046628E-4</v>
+        <v>4.6281290198046655E-4</v>
       </c>
       <c r="AD53">
         <f t="shared" ca="1" si="120"/>
-        <v>5.204037139245497E-4</v>
+        <v>5.2040371392455013E-4</v>
       </c>
       <c r="AE53">
         <f t="shared" ca="1" si="121"/>
-        <v>5.7666321207407905E-4</v>
+        <v>5.7666321207407926E-4</v>
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="122"/>
-        <v>6.3662631952149124E-4</v>
+        <v>6.3662631952149135E-4</v>
       </c>
       <c r="AG53">
         <f t="shared" ca="1" si="123"/>
@@ -15333,111 +15330,111 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="95"/>
-        <v>7.1117765487135487E-7</v>
+        <v>7.1117765487136662E-7</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="96"/>
-        <v>1.4213939653236518E-6</v>
+        <v>1.4213939653236742E-6</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="97"/>
-        <v>2.1289164073972504E-6</v>
+        <v>2.128916407397283E-6</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="98"/>
-        <v>2.8306517823941164E-6</v>
+        <v>2.8306517823941575E-6</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="99"/>
-        <v>3.5222016154581855E-6</v>
+        <v>3.5222016154582321E-6</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="100"/>
-        <v>4.1998025616734847E-6</v>
+        <v>4.1998025616735346E-6</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="101"/>
-        <v>4.8671448873480012E-6</v>
+        <v>4.8671448873480529E-6</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="102"/>
-        <v>5.5533567078098082E-6</v>
+        <v>5.5533567078098599E-6</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="103"/>
-        <v>6.3520738591408809E-6</v>
+        <v>6.35207385914093E-6</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="104"/>
-        <v>7.483873844797728E-6</v>
+        <v>7.4838738447977763E-6</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="105"/>
-        <v>9.3200608892208374E-6</v>
+        <v>9.3200608892208865E-6</v>
       </c>
       <c r="P54">
         <f t="shared" ca="1" si="106"/>
-        <v>1.2142977166636513E-5</v>
+        <v>1.2142977166636564E-5</v>
       </c>
       <c r="Q54">
         <f t="shared" ca="1" si="107"/>
-        <v>1.6283140041878484E-5</v>
+        <v>1.6283140041878538E-5</v>
       </c>
       <c r="R54">
         <f t="shared" ca="1" si="108"/>
-        <v>2.2221947079995316E-5</v>
+        <v>2.2221947079995377E-5</v>
       </c>
       <c r="S54">
         <f t="shared" ca="1" si="109"/>
-        <v>3.068540074425692E-5</v>
+        <v>3.0685400744257001E-5</v>
       </c>
       <c r="T54">
         <f t="shared" ca="1" si="110"/>
-        <v>4.2769515456258633E-5</v>
+        <v>4.2769515456258727E-5</v>
       </c>
       <c r="U54">
         <f t="shared" ca="1" si="111"/>
-        <v>6.0122820231693497E-5</v>
+        <v>6.0122820231693612E-5</v>
       </c>
       <c r="V54">
         <f t="shared" ca="1" si="112"/>
-        <v>8.5178220717593945E-5</v>
+        <v>8.5178220717594067E-5</v>
       </c>
       <c r="W54">
         <f t="shared" ca="1" si="113"/>
-        <v>1.2129576874332022E-4</v>
+        <v>1.2129576874332037E-4</v>
       </c>
       <c r="X54">
         <f t="shared" ca="1" si="114"/>
-        <v>1.7223663984158752E-4</v>
+        <v>1.7223663984158776E-4</v>
       </c>
       <c r="Y54">
         <f t="shared" ca="1" si="115"/>
-        <v>2.393337196008605E-4</v>
+        <v>2.3933371960086077E-4</v>
       </c>
       <c r="Z54">
         <f t="shared" ca="1" si="116"/>
-        <v>3.1470647873202548E-4</v>
+        <v>3.1470647873202575E-4</v>
       </c>
       <c r="AA54">
         <f t="shared" ca="1" si="117"/>
-        <v>3.9162652574093078E-4</v>
+        <v>3.916265257409311E-4</v>
       </c>
       <c r="AB54">
         <f t="shared" ca="1" si="118"/>
-        <v>4.6561070692315574E-4</v>
+        <v>4.6561070692315606E-4</v>
       </c>
       <c r="AC54">
         <f t="shared" ca="1" si="119"/>
-        <v>5.3328596630975713E-4</v>
+        <v>5.3328596630975746E-4</v>
       </c>
       <c r="AD54">
         <f t="shared" ca="1" si="120"/>
-        <v>5.9166767084467239E-4</v>
+        <v>5.9166767084467271E-4</v>
       </c>
       <c r="AE54">
         <f t="shared" ca="1" si="121"/>
-        <v>6.3853389195868957E-4</v>
+        <v>6.3853389195868979E-4</v>
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="122"/>
@@ -15700,119 +15697,119 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="95"/>
-        <v>7.97613752608091E-7</v>
+        <v>7.9761375260810392E-7</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="96"/>
-        <v>1.5914408405108573E-6</v>
+        <v>1.5914408405108818E-6</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="97"/>
-        <v>2.3754703530969318E-6</v>
+        <v>2.3754703530969669E-6</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="98"/>
-        <v>3.1388805763407465E-6</v>
+        <v>3.138880576340791E-6</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="99"/>
-        <v>3.8628559999094263E-6</v>
+        <v>3.8628559999094754E-6</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="100"/>
-        <v>4.517158650043005E-6</v>
+        <v>4.5171586500430583E-6</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="101"/>
-        <v>5.058988255101176E-6</v>
+        <v>5.0589882551012294E-6</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="102"/>
-        <v>5.443830329782282E-6</v>
+        <v>5.4438303297823329E-6</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="103"/>
-        <v>5.6781412567042931E-6</v>
+        <v>5.678141256704338E-6</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="104"/>
-        <v>5.9816968022860438E-6</v>
+        <v>5.9816968022860827E-6</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="105"/>
-        <v>7.0598273265469139E-6</v>
+        <v>7.059827326546952E-6</v>
       </c>
       <c r="P55">
         <f t="shared" ca="1" si="106"/>
-        <v>9.0344333281937944E-6</v>
+        <v>9.0344333281938317E-6</v>
       </c>
       <c r="Q55">
         <f t="shared" ca="1" si="107"/>
-        <v>1.208722778128593E-5</v>
+        <v>1.2087227781285973E-5</v>
       </c>
       <c r="R55">
         <f t="shared" ca="1" si="108"/>
-        <v>1.6578085216528915E-5</v>
+        <v>1.6578085216528966E-5</v>
       </c>
       <c r="S55">
         <f t="shared" ca="1" si="109"/>
-        <v>2.3125084670256005E-5</v>
+        <v>2.3125084670256059E-5</v>
       </c>
       <c r="T55">
         <f t="shared" ca="1" si="110"/>
-        <v>3.2755865136995904E-5</v>
+        <v>3.2755865136995972E-5</v>
       </c>
       <c r="U55">
         <f t="shared" ca="1" si="111"/>
-        <v>4.7208076093334256E-5</v>
+        <v>4.7208076093334337E-5</v>
       </c>
       <c r="V55">
         <f t="shared" ca="1" si="112"/>
-        <v>6.9507334412346824E-5</v>
+        <v>6.9507334412346919E-5</v>
       </c>
       <c r="W55">
         <f t="shared" ca="1" si="113"/>
-        <v>1.0498676289072478E-4</v>
+        <v>1.049867628907249E-4</v>
       </c>
       <c r="X55">
         <f t="shared" ca="1" si="114"/>
-        <v>1.6247245562094238E-4</v>
+        <v>1.624724556209426E-4</v>
       </c>
       <c r="Y55">
         <f t="shared" ca="1" si="115"/>
-        <v>2.5162348944475743E-4</v>
+        <v>2.516234894447577E-4</v>
       </c>
       <c r="Z55">
         <f t="shared" ca="1" si="116"/>
-        <v>3.4966000973765936E-4</v>
+        <v>3.4966000973765969E-4</v>
       </c>
       <c r="AA55">
         <f t="shared" ca="1" si="117"/>
-        <v>4.4574620901693344E-4</v>
+        <v>4.4574620901693382E-4</v>
       </c>
       <c r="AB55">
         <f t="shared" ca="1" si="118"/>
-        <v>5.349298383868097E-4</v>
+        <v>5.3492983838681013E-4</v>
       </c>
       <c r="AC55">
         <f t="shared" ca="1" si="119"/>
-        <v>6.1305258549073413E-4</v>
+        <v>6.1305258549073445E-4</v>
       </c>
       <c r="AD55">
         <f t="shared" ca="1" si="120"/>
-        <v>6.7444711118569325E-4</v>
+        <v>6.7444711118569358E-4</v>
       </c>
       <c r="AE55">
         <f t="shared" ca="1" si="121"/>
-        <v>7.1115930995941973E-4</v>
+        <v>7.1115930995941995E-4</v>
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="122"/>
-        <v>7.1431783510408952E-4</v>
+        <v>7.1431783510408973E-4</v>
       </c>
       <c r="AG55">
         <f t="shared" ca="1" si="123"/>
-        <v>6.8179886794403051E-4</v>
+        <v>6.8179886794403062E-4</v>
       </c>
       <c r="AH55">
         <f t="shared" ca="1" si="124"/>
@@ -16067,131 +16064,131 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="95"/>
-        <v>8.8783651505016235E-7</v>
+        <v>8.8783651505017611E-7</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="96"/>
-        <v>1.7712852910147714E-6</v>
+        <v>1.7712852910147979E-6</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="97"/>
-        <v>2.642643588138894E-6</v>
+        <v>2.6426435881389312E-6</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="98"/>
-        <v>3.486544169962539E-6</v>
+        <v>3.4865441699625856E-6</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="99"/>
-        <v>4.273183157795794E-6</v>
+        <v>4.2731831577958474E-6</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="100"/>
-        <v>4.9469877834879635E-6</v>
+        <v>4.9469877834880185E-6</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="101"/>
-        <v>5.4078191532314429E-6</v>
+        <v>5.407819153231498E-6</v>
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="102"/>
-        <v>5.4848350995138787E-6</v>
+        <v>5.484835099513927E-6</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="103"/>
-        <v>4.934964035607987E-6</v>
+        <v>4.9349640356080251E-6</v>
       </c>
       <c r="N56">
         <f ca="1">0.25*(O56+N55+M56+N57)</f>
-        <v>3.7049447810952565E-6</v>
+        <v>3.7049447810952806E-6</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="105"/>
-        <v>3.9031182864869995E-6</v>
+        <v>3.9031182864870207E-6</v>
       </c>
       <c r="P56">
         <f t="shared" ca="1" si="106"/>
-        <v>4.8477010383058347E-6</v>
+        <v>4.8477010383058542E-6</v>
       </c>
       <c r="Q56">
         <f t="shared" ca="1" si="107"/>
-        <v>6.4532525385425493E-6</v>
+        <v>6.4532525385425704E-6</v>
       </c>
       <c r="R56">
         <f t="shared" ca="1" si="108"/>
-        <v>8.878081334578438E-6</v>
+        <v>8.8780813345784651E-6</v>
       </c>
       <c r="S56">
         <f t="shared" ca="1" si="109"/>
-        <v>1.2480987583242299E-5</v>
+        <v>1.2480987583242329E-5</v>
       </c>
       <c r="T56">
         <f t="shared" ca="1" si="110"/>
-        <v>1.7920784328134759E-5</v>
+        <v>1.7920784328134793E-5</v>
       </c>
       <c r="U56">
         <f t="shared" ca="1" si="111"/>
-        <v>2.644628459230084E-5</v>
+        <v>2.6446284592300878E-5</v>
       </c>
       <c r="V56">
         <f t="shared" ca="1" si="112"/>
-        <v>4.0656277947734353E-5</v>
+        <v>4.06562779477344E-5</v>
       </c>
       <c r="W56">
         <f t="shared" ca="1" si="113"/>
-        <v>6.6671492786289746E-5</v>
+        <v>6.6671492786289828E-5</v>
       </c>
       <c r="X56">
         <f t="shared" ca="1" si="114"/>
-        <v>1.2104293030669992E-4</v>
+        <v>1.2104293030670005E-4</v>
       </c>
       <c r="Y56">
         <f t="shared" ca="1" si="115"/>
-        <v>2.5502777281956763E-4</v>
+        <v>2.5502777281956784E-4</v>
       </c>
       <c r="Z56">
         <f t="shared" ca="1" si="116"/>
-        <v>3.8656386175692112E-4</v>
+        <v>3.865638617569215E-4</v>
       </c>
       <c r="AA56">
         <f t="shared" ca="1" si="117"/>
-        <v>5.0676846220233413E-4</v>
+        <v>5.0676846220233445E-4</v>
       </c>
       <c r="AB56">
         <f t="shared" ca="1" si="118"/>
-        <v>6.1530985211641581E-4</v>
+        <v>6.1530985211641614E-4</v>
       </c>
       <c r="AC56">
         <f t="shared" ca="1" si="119"/>
-        <v>7.0954742608067664E-4</v>
+        <v>7.0954742608067708E-4</v>
       </c>
       <c r="AD56">
         <f t="shared" ca="1" si="120"/>
-        <v>7.8190887844794697E-4</v>
+        <v>7.8190887844794719E-4</v>
       </c>
       <c r="AE56">
         <f t="shared" ca="1" si="121"/>
-        <v>8.1733840158920679E-4</v>
+        <v>8.1733840158920712E-4</v>
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="122"/>
-        <v>7.8966778755632037E-4</v>
+        <v>7.896677875563207E-4</v>
       </c>
       <c r="AG56">
         <f t="shared" ca="1" si="123"/>
-        <v>6.6163015701257858E-4</v>
+        <v>6.6163015701257879E-4</v>
       </c>
       <c r="AH56">
         <f t="shared" ca="1" si="124"/>
-        <v>4.2445655913022587E-4</v>
+        <v>4.2445655913022598E-4</v>
       </c>
       <c r="AI56">
         <f t="shared" ca="1" si="125"/>
-        <v>3.9405205309095057E-4</v>
+        <v>3.9405205309095068E-4</v>
       </c>
       <c r="AJ56">
         <f t="shared" ca="1" si="126"/>
-        <v>4.5743438550224726E-4</v>
+        <v>4.5743438550224731E-4</v>
       </c>
       <c r="AK56">
         <f t="shared" ca="1" si="127"/>
@@ -16434,39 +16431,39 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="95"/>
-        <v>9.8244701657779801E-7</v>
+        <v>9.8244701657781283E-7</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="96"/>
-        <v>1.9632202203591892E-6</v>
+        <v>1.9632202203592175E-6</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="97"/>
-        <v>2.9372745384813561E-6</v>
+        <v>2.9372745384813963E-6</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="98"/>
-        <v>3.8914693575747487E-6</v>
+        <v>3.8914693575747979E-6</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="99"/>
-        <v>4.7963446778232791E-6</v>
+        <v>4.796344677823335E-6</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="100"/>
-        <v>5.5897901728816433E-6</v>
+        <v>5.5897901728817018E-6</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="101"/>
-        <v>6.1404654748227831E-6</v>
+        <v>6.1404654748228407E-6</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="102"/>
-        <v>6.152726879433825E-6</v>
+        <v>6.1527268794338759E-6</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="103"/>
-        <v>4.8719350051185352E-6</v>
+        <v>4.8719350051185699E-6</v>
       </c>
       <c r="N57" s="1">
         <v>0</v>
@@ -16503,39 +16500,39 @@
       </c>
       <c r="Y57">
         <f t="shared" ca="1" si="115"/>
-        <v>2.608808097698921E-4</v>
+        <v>2.6088080976989232E-4</v>
       </c>
       <c r="Z57">
         <f t="shared" ca="1" si="116"/>
-        <v>4.3479920226812362E-4</v>
+        <v>4.3479920226812389E-4</v>
       </c>
       <c r="AA57">
         <f t="shared" ca="1" si="117"/>
-        <v>5.7945392591906631E-4</v>
+        <v>5.7945392591906664E-4</v>
       </c>
       <c r="AB57">
         <f t="shared" ca="1" si="118"/>
-        <v>7.09993681795843E-4</v>
+        <v>7.0999368179584322E-4</v>
       </c>
       <c r="AC57">
         <f t="shared" ca="1" si="119"/>
-        <v>8.2791838826761009E-4</v>
+        <v>8.2791838826761052E-4</v>
       </c>
       <c r="AD57">
         <f t="shared" ca="1" si="120"/>
-        <v>9.2630257493621099E-4</v>
+        <v>9.2630257493621132E-4</v>
       </c>
       <c r="AE57">
         <f t="shared" ca="1" si="121"/>
-        <v>9.8661763039314065E-4</v>
+        <v>9.8661763039314086E-4</v>
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="122"/>
-        <v>9.6538475651940681E-4</v>
+        <v>9.6538475651940703E-4</v>
       </c>
       <c r="AG57">
         <f t="shared" ca="1" si="123"/>
-        <v>7.5059741341973777E-4</v>
+        <v>7.5059741341973788E-4</v>
       </c>
       <c r="AH57">
         <v>0</v>
@@ -16757,115 +16754,115 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="95"/>
-        <v>1.0787313309018524E-6</v>
+        <v>1.0787313309018676E-6</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="96"/>
-        <v>2.1618740353628498E-6</v>
+        <v>2.1618740353628799E-6</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="97"/>
-        <v>3.2517649878526175E-6</v>
+        <v>3.251764987852659E-6</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="98"/>
-        <v>4.3457140440318487E-6</v>
+        <v>4.3457140440319004E-6</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="99"/>
-        <v>5.4309360230409615E-6</v>
+        <v>5.4309360230410208E-6</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="100"/>
-        <v>6.4753627553925781E-6</v>
+        <v>6.4753627553926408E-6</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="101"/>
-        <v>7.4115256937442506E-6</v>
+        <v>7.4115256937443141E-6</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="102"/>
-        <v>8.1136719382801278E-6</v>
+        <v>8.1136719382801854E-6</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="103"/>
-        <v>8.4000491054323423E-6</v>
+        <v>8.4000491054323915E-6</v>
       </c>
       <c r="N58">
         <f t="shared" ref="N58:N66" ca="1" si="184">0.25*(O58+N57+M58+N59)</f>
-        <v>8.2993077021931588E-6</v>
+        <v>8.2993077021931943E-6</v>
       </c>
       <c r="O58">
         <f t="shared" ref="O58:O66" ca="1" si="185">0.25*(P58+O57+N58+O59)</f>
-        <v>1.0027328414728908E-5</v>
+        <v>1.0027328414728942E-5</v>
       </c>
       <c r="P58">
         <f t="shared" ref="P58:P66" ca="1" si="186">0.25*(Q58+P57+O58+P59)</f>
-        <v>1.3041504382275051E-5</v>
+        <v>1.3041504382275085E-5</v>
       </c>
       <c r="Q58">
         <f t="shared" ref="Q58:Q66" ca="1" si="187">0.25*(R58+Q57+P58+Q59)</f>
-        <v>1.7434412329881437E-5</v>
+        <v>1.743441232988147E-5</v>
       </c>
       <c r="R58">
         <f t="shared" ref="R58:R66" ca="1" si="188">0.25*(S58+R57+Q58+R59)</f>
-        <v>2.3589224610605642E-5</v>
+        <v>2.3589224610605682E-5</v>
       </c>
       <c r="S58">
         <f t="shared" ref="S58:S66" ca="1" si="189">0.25*(T58+S57+R58+S59)</f>
-        <v>3.2144178847954149E-5</v>
+        <v>3.2144178847954197E-5</v>
       </c>
       <c r="T58">
         <f t="shared" ref="T58:T66" ca="1" si="190">0.25*(U58+T57+S58+T59)</f>
-        <v>4.4098043214319625E-5</v>
+        <v>4.4098043214319686E-5</v>
       </c>
       <c r="U58">
         <f t="shared" ref="U58:U66" ca="1" si="191">0.25*(V58+U57+T58+U59)</f>
-        <v>6.1102976531261641E-5</v>
+        <v>6.1102976531261696E-5</v>
       </c>
       <c r="V58">
         <f t="shared" ref="V58:V66" ca="1" si="192">0.25*(W58+V57+U58+V59)</f>
-        <v>8.6224625915023946E-5</v>
+        <v>8.6224625915024014E-5</v>
       </c>
       <c r="W58">
         <f t="shared" ref="W58:W66" ca="1" si="193">0.25*(X58+W57+V58+W59)</f>
-        <v>1.2611587146977817E-4</v>
+        <v>1.2611587146977828E-4</v>
       </c>
       <c r="X58">
         <f t="shared" ref="X58:X66" ca="1" si="194">0.25*(Y58+X57+W58+X59)</f>
-        <v>1.9794022390177447E-4</v>
+        <v>1.9794022390177464E-4</v>
       </c>
       <c r="Y58">
         <f t="shared" ca="1" si="115"/>
-        <v>3.5369626399187726E-4</v>
+        <v>3.5369626399187754E-4</v>
       </c>
       <c r="Z58">
         <f t="shared" ca="1" si="116"/>
-        <v>5.1229821162661511E-4</v>
+        <v>5.1229821162661544E-4</v>
       </c>
       <c r="AA58">
         <f t="shared" ca="1" si="117"/>
-        <v>6.662543574099646E-4</v>
+        <v>6.6625435740996504E-4</v>
       </c>
       <c r="AB58">
         <f t="shared" ca="1" si="118"/>
-        <v>8.1729256088027957E-4</v>
+        <v>8.1729256088027989E-4</v>
       </c>
       <c r="AC58">
         <f t="shared" ca="1" si="119"/>
-        <v>9.6582987025771005E-4</v>
+        <v>9.6582987025771038E-4</v>
       </c>
       <c r="AD58">
         <f t="shared" ca="1" si="120"/>
-        <v>1.1087654026361465E-3</v>
+        <v>1.1087654026361467E-3</v>
       </c>
       <c r="AE58">
         <f t="shared" ca="1" si="121"/>
-        <v>1.2374447885277378E-3</v>
+        <v>1.237444788527738E-3</v>
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="122"/>
-        <v>1.3346561947084287E-3</v>
+        <v>1.3346561947084289E-3</v>
       </c>
       <c r="AG58">
         <f t="shared" ca="1" si="123"/>
@@ -17124,115 +17121,115 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="95"/>
-        <v>1.1706042716667731E-6</v>
+        <v>1.1706042716667892E-6</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="96"/>
-        <v>2.3537796023377609E-6</v>
+        <v>2.3537796023377914E-6</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="97"/>
-        <v>3.5621973335344404E-6</v>
+        <v>3.5621973335344841E-6</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="98"/>
-        <v>4.8086858076590968E-6</v>
+        <v>4.808685807659151E-6</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="99"/>
-        <v>6.1063226149161749E-6</v>
+        <v>6.1063226149162376E-6</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="100"/>
-        <v>7.4691991319034918E-6</v>
+        <v>7.4691991319035604E-6</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="101"/>
-        <v>8.9166026064815491E-6</v>
+        <v>8.9166026064816185E-6</v>
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="102"/>
-        <v>1.0490386074510123E-5</v>
+        <v>1.049038607451019E-5</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="103"/>
-        <v>1.2315281776137574E-5</v>
+        <v>1.2315281776137642E-5</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="184"/>
-        <v>1.4769853288611408E-5</v>
+        <v>1.4769853288611471E-5</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="185"/>
-        <v>1.8768501574447449E-5</v>
+        <v>1.876850157444751E-5</v>
       </c>
       <c r="P59">
         <f t="shared" ca="1" si="186"/>
-        <v>2.4704276784489885E-5</v>
+        <v>2.4704276784489946E-5</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="187"/>
-        <v>3.3106920326645084E-5</v>
+        <v>3.3106920326645152E-5</v>
       </c>
       <c r="R59">
         <f t="shared" ca="1" si="188"/>
-        <v>4.4778307264587015E-5</v>
+        <v>4.4778307264587089E-5</v>
       </c>
       <c r="S59">
         <f t="shared" ca="1" si="189"/>
-        <v>6.0889447566891371E-5</v>
+        <v>6.0889447566891466E-5</v>
       </c>
       <c r="T59">
         <f t="shared" ca="1" si="190"/>
-        <v>8.314501747806277E-5</v>
+        <v>8.3145017478062879E-5</v>
       </c>
       <c r="U59">
         <f t="shared" ca="1" si="191"/>
-        <v>1.1408923699570304E-4</v>
+        <v>1.1408923699570316E-4</v>
       </c>
       <c r="V59">
         <f t="shared" ca="1" si="192"/>
-        <v>1.5767965565905603E-4</v>
+        <v>1.5767965565905616E-4</v>
       </c>
       <c r="W59">
         <f t="shared" ca="1" si="193"/>
-        <v>2.2029863606231435E-4</v>
+        <v>2.2029863606231454E-4</v>
       </c>
       <c r="X59">
         <f t="shared" ca="1" si="194"/>
-        <v>3.1194876014544256E-4</v>
+        <v>3.1194876014544278E-4</v>
       </c>
       <c r="Y59">
         <f t="shared" ca="1" si="115"/>
-        <v>4.4366581066922759E-4</v>
+        <v>4.4366581066922786E-4</v>
       </c>
       <c r="Z59">
         <f t="shared" ca="1" si="116"/>
-        <v>5.9444302283649512E-4</v>
+        <v>5.9444302283649555E-4</v>
       </c>
       <c r="AA59">
         <f t="shared" ca="1" si="117"/>
-        <v>7.5597273121389775E-4</v>
+        <v>7.5597273121389818E-4</v>
       </c>
       <c r="AB59">
         <f t="shared" ca="1" si="118"/>
-        <v>9.2709233405760061E-4</v>
+        <v>9.2709233405760094E-4</v>
       </c>
       <c r="AC59">
         <f t="shared" ca="1" si="119"/>
-        <v>1.1093431292468043E-3</v>
+        <v>1.1093431292468045E-3</v>
       </c>
       <c r="AD59">
         <f t="shared" ca="1" si="120"/>
-        <v>1.305484376822927E-3</v>
+        <v>1.3054843768229274E-3</v>
       </c>
       <c r="AE59">
         <f t="shared" ca="1" si="121"/>
-        <v>1.5197399263732359E-3</v>
+        <v>1.5197399263732364E-3</v>
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="122"/>
-        <v>1.760420493639604E-3</v>
+        <v>1.7604204936396044E-3</v>
       </c>
       <c r="AG59">
         <f t="shared" ca="1" si="123"/>
@@ -17491,107 +17488,107 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="95"/>
-        <v>1.2499061534274923E-6</v>
+        <v>1.2499061534275086E-6</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="96"/>
-        <v>2.5204427687869992E-6</v>
+        <v>2.5204427687870306E-6</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="97"/>
-        <v>3.8345589362883146E-6</v>
+        <v>3.8345589362883586E-6</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="98"/>
-        <v>5.2205092381539551E-6</v>
+        <v>5.2205092381540102E-6</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="99"/>
-        <v>6.7164694970611852E-6</v>
+        <v>6.7164694970612504E-6</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="100"/>
-        <v>8.3785085508237059E-6</v>
+        <v>8.378508550823777E-6</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="101"/>
-        <v>1.029529952576837E-5</v>
+        <v>1.0295299525768443E-5</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="102"/>
-        <v>1.2615987977141277E-5</v>
+        <v>1.2615987977141354E-5</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="103"/>
-        <v>1.5600838635996463E-5</v>
+        <v>1.560083863599654E-5</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="184"/>
-        <v>1.9696322101667491E-5</v>
+        <v>1.9696322101667572E-5</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="185"/>
-        <v>2.5572547809959635E-5</v>
+        <v>2.5572547809959716E-5</v>
       </c>
       <c r="P60">
         <f t="shared" ca="1" si="186"/>
-        <v>3.3900180854591994E-5</v>
+        <v>3.3900180854592082E-5</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="187"/>
-        <v>4.5510684927622055E-5</v>
+        <v>4.5510684927622149E-5</v>
       </c>
       <c r="R60">
         <f t="shared" ca="1" si="188"/>
-        <v>6.1527636554206002E-5</v>
+        <v>6.1527636554206111E-5</v>
       </c>
       <c r="S60">
         <f t="shared" ca="1" si="189"/>
-        <v>8.3490286676961617E-5</v>
+        <v>8.3490286676961739E-5</v>
       </c>
       <c r="T60">
         <f t="shared" ca="1" si="190"/>
-        <v>1.1350334213533715E-4</v>
+        <v>1.135033421353373E-4</v>
       </c>
       <c r="U60">
         <f t="shared" ca="1" si="191"/>
-        <v>1.5442929831443176E-4</v>
+        <v>1.5442929831443195E-4</v>
       </c>
       <c r="V60">
         <f t="shared" ca="1" si="192"/>
-        <v>2.1010612366318283E-4</v>
+        <v>2.1010612366318304E-4</v>
       </c>
       <c r="W60">
         <f t="shared" ca="1" si="193"/>
-        <v>2.8545025697498082E-4</v>
+        <v>2.8545025697498103E-4</v>
       </c>
       <c r="X60">
         <f t="shared" ca="1" si="194"/>
-        <v>3.8589036994845399E-4</v>
+        <v>3.8589036994845426E-4</v>
       </c>
       <c r="Y60">
         <f t="shared" ca="1" si="115"/>
-        <v>5.1457519570309563E-4</v>
+        <v>5.1457519570309595E-4</v>
       </c>
       <c r="Z60">
         <f t="shared" ca="1" si="116"/>
-        <v>6.6583533783624036E-4</v>
+        <v>6.6583533783624068E-4</v>
       </c>
       <c r="AA60">
         <f t="shared" ca="1" si="117"/>
-        <v>8.3610121055153097E-4</v>
+        <v>8.3610121055153141E-4</v>
       </c>
       <c r="AB60">
         <f t="shared" ca="1" si="118"/>
-        <v>1.0257609148894213E-3</v>
+        <v>1.0257609148894215E-3</v>
       </c>
       <c r="AC60">
         <f t="shared" ca="1" si="119"/>
-        <v>1.23896593584898E-3</v>
+        <v>1.2389659358489802E-3</v>
       </c>
       <c r="AD60">
         <f t="shared" ca="1" si="120"/>
-        <v>1.4840890490355218E-3</v>
+        <v>1.484089049035522E-3</v>
       </c>
       <c r="AE60">
         <f t="shared" ca="1" si="121"/>
@@ -17858,95 +17855,95 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="95"/>
-        <v>1.3085775732562098E-6</v>
+        <v>1.3085775732562263E-6</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="96"/>
-        <v>2.6435263830944487E-6</v>
+        <v>2.6435263830944805E-6</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="97"/>
-        <v>4.0350864046778914E-6</v>
+        <v>4.0350864046779363E-6</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="98"/>
-        <v>5.5223227116072544E-6</v>
+        <v>5.5223227116073111E-6</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="99"/>
-        <v>7.1605375843509413E-6</v>
+        <v>7.1605375843510082E-6</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="100"/>
-        <v>9.0330660485618154E-6</v>
+        <v>9.0330660485618882E-6</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1270098968626983E-5</v>
+        <v>1.1270098968627061E-5</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="102"/>
-        <v>1.4077427672290193E-5</v>
+        <v>1.4077427672290276E-5</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="103"/>
-        <v>1.777576268903955E-5</v>
+        <v>1.7775762689039635E-5</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="184"/>
-        <v>2.2842048672102507E-5</v>
+        <v>2.2842048672102596E-5</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="185"/>
-        <v>2.9925186709131655E-5</v>
+        <v>2.9925186709131749E-5</v>
       </c>
       <c r="P61">
         <f t="shared" ca="1" si="186"/>
-        <v>3.9813213896296461E-5</v>
+        <v>3.9813213896296562E-5</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="187"/>
-        <v>5.3508001975045165E-5</v>
+        <v>5.350800197504528E-5</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="188"/>
-        <v>7.2331267347653411E-5</v>
+        <v>7.2331267347653533E-5</v>
       </c>
       <c r="S61">
         <f t="shared" ca="1" si="189"/>
-        <v>9.8040720451412019E-5</v>
+        <v>9.8040720451412155E-5</v>
       </c>
       <c r="T61">
         <f t="shared" ca="1" si="190"/>
-        <v>1.3294876607189258E-4</v>
+        <v>1.3294876607189275E-4</v>
       </c>
       <c r="U61">
         <f t="shared" ca="1" si="191"/>
-        <v>1.8001849046350412E-4</v>
+        <v>1.8001849046350433E-4</v>
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="192"/>
-        <v>2.4286528370426287E-4</v>
+        <v>2.4286528370426308E-4</v>
       </c>
       <c r="W61">
         <f t="shared" ca="1" si="193"/>
-        <v>3.2550589822597219E-4</v>
+        <v>3.2550589822597246E-4</v>
       </c>
       <c r="X61">
         <f t="shared" ca="1" si="194"/>
-        <v>4.315872669702972E-4</v>
+        <v>4.3158726697029753E-4</v>
       </c>
       <c r="Y61">
         <f t="shared" ca="1" si="115"/>
-        <v>5.6290926435846069E-4</v>
+        <v>5.6290926435846101E-4</v>
       </c>
       <c r="Z61">
         <f t="shared" ca="1" si="116"/>
-        <v>7.182219222538396E-4</v>
+        <v>7.1822192225383982E-4</v>
       </c>
       <c r="AA61">
         <f t="shared" ca="1" si="117"/>
-        <v>8.9683585826656482E-4</v>
+        <v>8.9683585826656515E-4</v>
       </c>
       <c r="AB61">
         <f t="shared" ca="1" si="118"/>
@@ -18225,103 +18222,103 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="95"/>
-        <v>1.3408777565029113E-6</v>
+        <v>1.3408777565029274E-6</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="96"/>
-        <v>2.7099987856567148E-6</v>
+        <v>2.7099987856567466E-6</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="97"/>
-        <v>4.1399375877215747E-6</v>
+        <v>4.1399375877216196E-6</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="98"/>
-        <v>5.6731576192462628E-6</v>
+        <v>5.6731576192463196E-6</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="99"/>
-        <v>7.3702920801735507E-6</v>
+        <v>7.3702920801736177E-6</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="100"/>
-        <v>9.3231190904456725E-6</v>
+        <v>9.323119090445747E-6</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1674602627887599E-5</v>
+        <v>1.1674602627887679E-5</v>
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="102"/>
-        <v>1.4647861054353006E-5</v>
+        <v>1.464786105435309E-5</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="103"/>
-        <v>1.8582735775769087E-5</v>
+        <v>1.8582735775769175E-5</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="184"/>
-        <v>2.3970923188571375E-5</v>
+        <v>2.397092318857147E-5</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="185"/>
-        <v>3.147293645816807E-5</v>
+        <v>3.1472936458168171E-5</v>
       </c>
       <c r="P62">
         <f t="shared" ca="1" si="186"/>
-        <v>4.1919486046417079E-5</v>
+        <v>4.1919486046417188E-5</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="187"/>
-        <v>5.6376841728608794E-5</v>
+        <v>5.6376841728608916E-5</v>
       </c>
       <c r="R62">
         <f t="shared" ca="1" si="188"/>
-        <v>7.6248710409950544E-5</v>
+        <v>7.624871040995068E-5</v>
       </c>
       <c r="S62">
         <f t="shared" ca="1" si="189"/>
-        <v>1.0339256170914055E-4</v>
+        <v>1.033925617091407E-4</v>
       </c>
       <c r="T62">
         <f t="shared" ca="1" si="190"/>
-        <v>1.4023251123731708E-4</v>
+        <v>1.4023251123731725E-4</v>
       </c>
       <c r="U62">
         <f t="shared" ca="1" si="191"/>
-        <v>1.8983061376342939E-4</v>
+        <v>1.8983061376342961E-4</v>
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="192"/>
-        <v>2.558306224643925E-4</v>
+        <v>2.5583062246439271E-4</v>
       </c>
       <c r="W62">
         <f t="shared" ca="1" si="193"/>
-        <v>3.4212078525434821E-4</v>
+        <v>3.4212078525434843E-4</v>
       </c>
       <c r="X62">
         <f t="shared" ca="1" si="194"/>
-        <v>4.5204353534830205E-4</v>
+        <v>4.5204353534830232E-4</v>
       </c>
       <c r="Y62">
         <f t="shared" ca="1" si="115"/>
-        <v>5.8725267250661064E-4</v>
+        <v>5.8725267250661086E-4</v>
       </c>
       <c r="Z62">
         <f t="shared" ca="1" si="116"/>
-        <v>7.4730722855409232E-4</v>
+        <v>7.4730722855409265E-4</v>
       </c>
       <c r="AA62">
         <f t="shared" ca="1" si="117"/>
-        <v>9.3213612116131554E-4</v>
+        <v>9.3213612116131586E-4</v>
       </c>
       <c r="AB62">
         <f t="shared" ca="1" si="118"/>
-        <v>1.1442692930181356E-3</v>
+        <v>1.1442692930181359E-3</v>
       </c>
       <c r="AC62">
         <f t="shared" ca="1" si="119"/>
-        <v>1.3905366489806309E-3</v>
+        <v>1.3905366489806311E-3</v>
       </c>
       <c r="AD62">
         <f t="shared" ca="1" si="120"/>
@@ -18592,99 +18589,99 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="95"/>
-        <v>1.3449346670987326E-6</v>
+        <v>1.3449346670987489E-6</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="96"/>
-        <v>2.7156534153079467E-6</v>
+        <v>2.715653415307978E-6</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="97"/>
-        <v>4.1415075413054555E-6</v>
+        <v>4.1415075413054996E-6</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="98"/>
-        <v>5.6600780974827028E-6</v>
+        <v>5.6600780974827587E-6</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="99"/>
-        <v>7.3243540266513628E-6</v>
+        <v>7.3243540266514272E-6</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="100"/>
-        <v>9.2145156051597693E-6</v>
+        <v>9.2145156051598387E-6</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1457331398124778E-5</v>
+        <v>1.1457331398124853E-5</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="102"/>
-        <v>1.4256678141465192E-5</v>
+        <v>1.4256678141465273E-5</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="103"/>
-        <v>1.7936396171112462E-5</v>
+        <v>1.7936396171112543E-5</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="184"/>
-        <v>2.2985971848245885E-5</v>
+        <v>2.2985971848245973E-5</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="185"/>
-        <v>3.0076149888552235E-5</v>
+        <v>3.0076149888552323E-5</v>
       </c>
       <c r="P63">
         <f t="shared" ca="1" si="186"/>
-        <v>4.0014952102595054E-5</v>
+        <v>4.0014952102595156E-5</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="187"/>
-        <v>5.3831168483022469E-5</v>
+        <v>5.3831168483022584E-5</v>
       </c>
       <c r="R63">
         <f t="shared" ca="1" si="188"/>
-        <v>7.28941708543995E-5</v>
+        <v>7.2894170854399636E-5</v>
       </c>
       <c r="S63">
         <f t="shared" ca="1" si="189"/>
-        <v>9.9048304737882638E-5</v>
+        <v>9.9048304737882773E-5</v>
       </c>
       <c r="T63">
         <f t="shared" ca="1" si="190"/>
-        <v>1.3475810340480592E-4</v>
+        <v>1.3475810340480605E-4</v>
       </c>
       <c r="U63">
         <f t="shared" ca="1" si="191"/>
-        <v>1.8324083088850398E-4</v>
+        <v>1.832408308885042E-4</v>
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="192"/>
-        <v>2.4850580713552958E-4</v>
+        <v>2.4850580713552979E-4</v>
       </c>
       <c r="W63">
         <f t="shared" ca="1" si="193"/>
-        <v>3.351030849787261E-4</v>
+        <v>3.3510308497872632E-4</v>
       </c>
       <c r="X63">
         <f t="shared" ca="1" si="194"/>
-        <v>4.4721341666195235E-4</v>
+        <v>4.4721341666195262E-4</v>
       </c>
       <c r="Y63">
         <f t="shared" ca="1" si="115"/>
-        <v>5.8675066176558767E-4</v>
+        <v>5.8675066176558789E-4</v>
       </c>
       <c r="Z63">
         <f t="shared" ca="1" si="116"/>
-        <v>7.5161819829460395E-4</v>
+        <v>7.5161819829460417E-4</v>
       </c>
       <c r="AA63">
         <f t="shared" ca="1" si="117"/>
-        <v>9.4013210480646959E-4</v>
+        <v>9.4013210480646981E-4</v>
       </c>
       <c r="AB63">
         <f t="shared" ca="1" si="118"/>
-        <v>1.1535202228310231E-3</v>
+        <v>1.1535202228310233E-3</v>
       </c>
       <c r="AC63">
         <f t="shared" ca="1" si="119"/>
@@ -18959,95 +18956,95 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="95"/>
-        <v>1.3232074965840853E-6</v>
+        <v>1.3232074965841008E-6</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="96"/>
-        <v>2.6661726671709038E-6</v>
+        <v>2.6661726671709338E-6</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="97"/>
-        <v>4.0503610647096235E-6</v>
+        <v>4.0503610647096658E-6</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="98"/>
-        <v>5.5012932027277646E-6</v>
+        <v>5.5012932027278172E-6</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="99"/>
-        <v>7.0525303237894633E-6</v>
+        <v>7.0525303237895243E-6</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="100"/>
-        <v>8.753257905417299E-6</v>
+        <v>8.7532579054173651E-6</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="101"/>
-        <v>1.068352921798659E-5</v>
+        <v>1.0683529217986661E-5</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="102"/>
-        <v>1.2985123942270567E-5</v>
+        <v>1.298512394227064E-5</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="103"/>
-        <v>1.5920198918969719E-5</v>
+        <v>1.5920198918969794E-5</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="184"/>
-        <v>1.9960418144747518E-5</v>
+        <v>1.9960418144747592E-5</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="185"/>
-        <v>2.5830739145199967E-5</v>
+        <v>2.5830739145200041E-5</v>
       </c>
       <c r="P64">
         <f t="shared" ca="1" si="186"/>
-        <v>3.4233003992388494E-5</v>
+        <v>3.4233003992388575E-5</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="187"/>
-        <v>4.6038709246486582E-5</v>
+        <v>4.6038709246486677E-5</v>
       </c>
       <c r="R64">
         <f t="shared" ca="1" si="188"/>
-        <v>6.244849978674241E-5</v>
+        <v>6.2448499786742518E-5</v>
       </c>
       <c r="S64">
         <f t="shared" ca="1" si="189"/>
-        <v>8.5148382983184695E-5</v>
+        <v>8.5148382983184803E-5</v>
       </c>
       <c r="T64">
         <f t="shared" ca="1" si="190"/>
-        <v>1.1651076675551998E-4</v>
+        <v>1.1651076675552009E-4</v>
       </c>
       <c r="U64">
         <f t="shared" ca="1" si="191"/>
-        <v>1.5986879925025124E-4</v>
+        <v>1.598687992502514E-4</v>
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="192"/>
-        <v>2.1984869021049585E-4</v>
+        <v>2.1984869021049602E-4</v>
       </c>
       <c r="W64">
         <f t="shared" ca="1" si="193"/>
-        <v>3.0257233086307422E-4</v>
+        <v>3.0257233086307438E-4</v>
       </c>
       <c r="X64">
         <f t="shared" ca="1" si="194"/>
-        <v>4.149563845551938E-4</v>
+        <v>4.1495638455519402E-4</v>
       </c>
       <c r="Y64">
         <f t="shared" ca="1" si="115"/>
-        <v>5.6091835959918397E-4</v>
+        <v>5.6091835959918418E-4</v>
       </c>
       <c r="Z64">
         <f t="shared" ca="1" si="116"/>
-        <v>7.3228279805226642E-4</v>
+        <v>7.3228279805226664E-4</v>
       </c>
       <c r="AA64">
         <f t="shared" ca="1" si="117"/>
-        <v>9.2325387693893593E-4</v>
+        <v>9.2325387693893615E-4</v>
       </c>
       <c r="AB64">
         <f t="shared" ca="1" si="118"/>
@@ -19326,95 +19323,95 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="95"/>
-        <v>1.2817226520667163E-6</v>
+        <v>1.2817226520667309E-6</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="96"/>
-        <v>2.5754686920819789E-6</v>
+        <v>2.5754686920820069E-6</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="97"/>
-        <v>3.8924708476343949E-6</v>
+        <v>3.8924708476344347E-6</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="98"/>
-        <v>5.242203324929297E-6</v>
+        <v>5.2422033249293469E-6</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="99"/>
-        <v>6.6312161603614623E-6</v>
+        <v>6.6312161603615199E-6</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="100"/>
-        <v>8.0624564747334092E-6</v>
+        <v>8.0624564747334718E-6</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="101"/>
-        <v>9.538403626133751E-6</v>
+        <v>9.5384036261338137E-6</v>
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1080089490660807E-5</v>
+        <v>1.1080089490660869E-5</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="103"/>
-        <v>1.2798857417748358E-5</v>
+        <v>1.2798857417748419E-5</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="184"/>
-        <v>1.5104762666574539E-5</v>
+        <v>1.5104762666574598E-5</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="185"/>
-        <v>1.905338455511165E-5</v>
+        <v>1.9053384555111708E-5</v>
       </c>
       <c r="P65">
         <f t="shared" ca="1" si="186"/>
-        <v>2.5047615475272411E-5</v>
+        <v>2.5047615475272469E-5</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="187"/>
-        <v>3.3642164723792983E-5</v>
+        <v>3.3642164723793051E-5</v>
       </c>
       <c r="R65">
         <f t="shared" ca="1" si="188"/>
-        <v>4.5712736062898944E-5</v>
+        <v>4.5712736062899026E-5</v>
       </c>
       <c r="S65">
         <f t="shared" ca="1" si="189"/>
-        <v>6.2585960652593807E-5</v>
+        <v>6.2585960652593889E-5</v>
       </c>
       <c r="T65">
         <f t="shared" ca="1" si="190"/>
-        <v>8.6267781383838119E-5</v>
+        <v>8.6267781383838187E-5</v>
       </c>
       <c r="U65">
         <f t="shared" ca="1" si="191"/>
-        <v>1.1987490914648516E-4</v>
+        <v>1.1987490914648525E-4</v>
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="192"/>
-        <v>1.6844782359312857E-4</v>
+        <v>1.6844782359312868E-4</v>
       </c>
       <c r="W65">
         <f t="shared" ca="1" si="193"/>
-        <v>2.403811637078812E-4</v>
+        <v>2.403811637078813E-4</v>
       </c>
       <c r="X65">
         <f t="shared" ca="1" si="194"/>
-        <v>3.4912143109656478E-4</v>
+        <v>3.4912143109656489E-4</v>
       </c>
       <c r="Y65">
         <f t="shared" ca="1" si="115"/>
-        <v>5.0968359402368813E-4</v>
+        <v>5.0968359402368834E-4</v>
       </c>
       <c r="Z65">
         <f t="shared" ca="1" si="116"/>
-        <v>6.9334075737634195E-4</v>
+        <v>6.9334075737634217E-4</v>
       </c>
       <c r="AA65">
         <f t="shared" ca="1" si="117"/>
-        <v>8.8808594354419486E-4</v>
+        <v>8.8808594354419497E-4</v>
       </c>
       <c r="AB65">
         <f t="shared" ca="1" si="118"/>
@@ -19693,95 +19690,95 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="95"/>
-        <v>1.2282144196008122E-6</v>
+        <v>1.2282144196008259E-6</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="96"/>
-        <v>2.4615086014559187E-6</v>
+        <v>2.4615086014559449E-6</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="97"/>
-        <v>3.7018503088167026E-6</v>
+        <v>3.7018503088167399E-6</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="98"/>
-        <v>4.9438330889935948E-6</v>
+        <v>4.9438330889936405E-6</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="99"/>
-        <v>6.1676745179937094E-6</v>
+        <v>6.167674517993762E-6</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="100"/>
-        <v>7.3269482070211582E-6</v>
+        <v>7.3269482070212141E-6</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="101"/>
-        <v>8.3275393211542287E-6</v>
+        <v>8.3275393211542846E-6</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="102"/>
-        <v>8.9979729764905806E-6</v>
+        <v>8.9979729764906314E-6</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="103"/>
-        <v>9.0903785947883957E-6</v>
+        <v>9.0903785947884381E-6</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="184"/>
-        <v>8.6063905486906591E-6</v>
+        <v>8.6063905486906913E-6</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="185"/>
-        <v>1.0230420933399711E-5</v>
+        <v>1.0230420933399739E-5</v>
       </c>
       <c r="P66">
         <f t="shared" ca="1" si="186"/>
-        <v>1.3261908629796536E-5</v>
+        <v>1.3261908629796567E-5</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="187"/>
-        <v>1.776959811051403E-5</v>
+        <v>1.7769598110514064E-5</v>
       </c>
       <c r="R66">
         <f t="shared" ca="1" si="188"/>
-        <v>2.4174319088466617E-5</v>
+        <v>2.4174319088466654E-5</v>
       </c>
       <c r="S66">
         <f t="shared" ca="1" si="189"/>
-        <v>3.3214942180453499E-5</v>
+        <v>3.321494218045354E-5</v>
       </c>
       <c r="T66">
         <f t="shared" ca="1" si="190"/>
-        <v>4.609948898075358E-5</v>
+        <v>4.6099488980753614E-5</v>
       </c>
       <c r="U66">
         <f t="shared" ca="1" si="191"/>
-        <v>6.4915232358722714E-5</v>
+        <v>6.4915232358722755E-5</v>
       </c>
       <c r="V66">
         <f t="shared" ca="1" si="192"/>
-        <v>9.3686531307652154E-5</v>
+        <v>9.3686531307652222E-5</v>
       </c>
       <c r="W66">
         <f t="shared" ca="1" si="193"/>
-        <v>1.4138306927875732E-4</v>
+        <v>1.413830692787574E-4</v>
       </c>
       <c r="X66">
         <f t="shared" ca="1" si="194"/>
-        <v>2.3146458209949601E-4</v>
+        <v>2.3146458209949606E-4</v>
       </c>
       <c r="Y66">
         <f t="shared" ca="1" si="115"/>
-        <v>4.3535382802266197E-4</v>
+        <v>4.3535382802266208E-4</v>
       </c>
       <c r="Z66">
         <f t="shared" ca="1" si="116"/>
-        <v>6.433106938852184E-4</v>
+        <v>6.4331069388521862E-4</v>
       </c>
       <c r="AA66">
         <f t="shared" ca="1" si="117"/>
-        <v>8.449287470306357E-4</v>
+        <v>8.4492874703063581E-4</v>
       </c>
       <c r="AB66">
         <f t="shared" ca="1" si="118"/>
@@ -20060,39 +20057,39 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="95"/>
-        <v>1.1696264248806247E-6</v>
+        <v>1.1696264248806376E-6</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="96"/>
-        <v>2.3405009853241967E-6</v>
+        <v>2.3405009853242217E-6</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="97"/>
-        <v>3.5095886971829246E-6</v>
+        <v>3.5095886971829593E-6</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="98"/>
-        <v>4.6636042042346952E-6</v>
+        <v>4.6636042042347375E-6</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="99"/>
-        <v>5.7687006155986504E-6</v>
+        <v>5.7687006155986987E-6</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="100"/>
-        <v>6.7501225142033151E-6</v>
+        <v>6.7501225142033659E-6</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="101"/>
-        <v>7.4468324749714573E-6</v>
+        <v>7.4468324749715064E-6</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="102"/>
-        <v>7.4938844993589134E-6</v>
+        <v>7.4938844993589558E-6</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="103"/>
-        <v>5.9582934362239967E-6</v>
+        <v>5.9582934362240272E-6</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -20129,7 +20126,7 @@
       </c>
       <c r="Y67">
         <f t="shared" ca="1" si="115"/>
-        <v>3.5695644208224545E-4</v>
+        <v>3.569564420822455E-4</v>
       </c>
       <c r="Z67">
         <f t="shared" ca="1" si="116"/>
@@ -20137,11 +20134,11 @@
       </c>
       <c r="AA67">
         <f t="shared" ca="1" si="117"/>
-        <v>8.0654905910445705E-4</v>
+        <v>8.0654905910445716E-4</v>
       </c>
       <c r="AB67">
         <f t="shared" ca="1" si="118"/>
-        <v>9.98614622553686E-4</v>
+        <v>9.9861462255368622E-4</v>
       </c>
       <c r="AC67">
         <f t="shared" ca="1" si="119"/>
@@ -20383,87 +20380,87 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="95"/>
-        <v>1.1097902945974995E-6</v>
+        <v>1.1097902945975113E-6</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="96"/>
-        <v>2.2212802177773352E-6</v>
+        <v>2.2212802177773581E-6</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="97"/>
-        <v>3.3323992903561234E-6</v>
+        <v>3.3323992903561556E-6</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="98"/>
-        <v>4.4322944151636346E-6</v>
+        <v>4.4322944151636735E-6</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="99"/>
-        <v>5.4934012259629074E-6</v>
+        <v>5.4934012259629514E-6</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="100"/>
-        <v>6.4580087592220191E-6</v>
+        <v>6.4580087592220657E-6</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="101"/>
-        <v>7.2157835651693939E-6</v>
+        <v>7.2157835651694388E-6</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="102"/>
-        <v>7.5724391097496377E-6</v>
+        <v>7.5724391097496784E-6</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="103"/>
-        <v>7.2489106507486878E-6</v>
+        <v>7.2489106507487183E-6</v>
       </c>
       <c r="N68">
         <f t="shared" ref="N68:N76" ca="1" si="228">0.25*(O68+N67+M68+N69)</f>
-        <v>6.2054474197760169E-6</v>
+        <v>6.2054474197760364E-6</v>
       </c>
       <c r="O68">
         <f t="shared" ref="O68:O76" ca="1" si="229">0.25*(P68+O67+N68+O69)</f>
-        <v>7.0730927224134111E-6</v>
+        <v>7.0730927224134264E-6</v>
       </c>
       <c r="P68">
         <f t="shared" ref="P68:P76" ca="1" si="230">0.25*(Q68+P67+O68+P69)</f>
-        <v>9.0840790928319676E-6</v>
+        <v>9.0840790928319828E-6</v>
       </c>
       <c r="Q68">
         <f t="shared" ref="Q68:Q76" ca="1" si="231">0.25*(R68+Q67+P68+Q69)</f>
-        <v>1.2224220152530168E-5</v>
+        <v>1.2224220152530185E-5</v>
       </c>
       <c r="R68">
         <f t="shared" ref="R68:R76" ca="1" si="232">0.25*(S68+R67+Q68+R69)</f>
-        <v>1.6814347936469551E-5</v>
+        <v>1.6814347936469572E-5</v>
       </c>
       <c r="S68">
         <f t="shared" ref="S68:S76" ca="1" si="233">0.25*(T68+S67+R68+S69)</f>
-        <v>2.3476674541651865E-5</v>
+        <v>2.3476674541651882E-5</v>
       </c>
       <c r="T68">
         <f t="shared" ref="T68:T76" ca="1" si="234">0.25*(U68+T67+S68+T69)</f>
-        <v>3.3289708677737816E-5</v>
+        <v>3.3289708677737844E-5</v>
       </c>
       <c r="U68">
         <f t="shared" ref="U68:U76" ca="1" si="235">0.25*(V68+U67+T68+U69)</f>
-        <v>4.8207235271641559E-5</v>
+        <v>4.8207235271641593E-5</v>
       </c>
       <c r="V68">
         <f t="shared" ref="V68:V76" ca="1" si="236">0.25*(W68+V67+U68+V69)</f>
-        <v>7.2130850717304329E-5</v>
+        <v>7.2130850717304357E-5</v>
       </c>
       <c r="W68">
         <f t="shared" ref="W68:W76" ca="1" si="237">0.25*(X68+W67+V68+W69)</f>
-        <v>1.139368462715071E-4</v>
+        <v>1.1393684627150712E-4</v>
       </c>
       <c r="X68">
         <f t="shared" ref="X68:X76" ca="1" si="238">0.25*(Y68+X67+W68+X69)</f>
-        <v>1.9703693050031931E-4</v>
+        <v>1.9703693050031936E-4</v>
       </c>
       <c r="Y68">
         <f t="shared" ca="1" si="115"/>
-        <v>3.9285249719508562E-4</v>
+        <v>3.9285249719508573E-4</v>
       </c>
       <c r="Z68">
         <f t="shared" ca="1" si="116"/>
@@ -20471,11 +20468,11 @@
       </c>
       <c r="AA68">
         <f t="shared" ca="1" si="117"/>
-        <v>7.8303342372227237E-4</v>
+        <v>7.8303342372227247E-4</v>
       </c>
       <c r="AB68">
         <f t="shared" ca="1" si="118"/>
-        <v>9.6837238217545763E-4</v>
+        <v>9.6837238217545795E-4</v>
       </c>
       <c r="AC68">
         <f t="shared" ca="1" si="119"/>
@@ -20750,87 +20747,87 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="95"/>
-        <v>1.0482545357320467E-6</v>
+        <v>1.0482545357320575E-6</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="96"/>
-        <v>2.1024303008315358E-6</v>
+        <v>2.1024303008315566E-6</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="97"/>
-        <v>3.1664338313006182E-6</v>
+        <v>3.166433831300647E-6</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="98"/>
-        <v>4.2397729401008326E-6</v>
+        <v>4.2397729401008682E-6</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="99"/>
-        <v>5.3146011138673499E-6</v>
+        <v>5.3146011138673906E-6</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="100"/>
-        <v>6.3727277315524856E-6</v>
+        <v>6.3727277315525296E-6</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="101"/>
-        <v>7.3858539167344809E-6</v>
+        <v>7.3858539167345241E-6</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="102"/>
-        <v>8.3311777237215769E-6</v>
+        <v>8.3311777237216193E-6</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="103"/>
-        <v>9.2594626372451118E-6</v>
+        <v>9.2594626372451473E-6</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="228"/>
-        <v>1.0499786305941984E-5</v>
+        <v>1.0499786305942015E-5</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="229"/>
-        <v>1.300284437704567E-5</v>
+        <v>1.3002844377045697E-5</v>
       </c>
       <c r="P69">
         <f t="shared" ca="1" si="230"/>
-        <v>1.7039003496384305E-5</v>
+        <v>1.7039003496384332E-5</v>
       </c>
       <c r="Q69">
         <f t="shared" ca="1" si="231"/>
-        <v>2.2998453580819164E-5</v>
+        <v>2.2998453580819198E-5</v>
       </c>
       <c r="R69">
         <f t="shared" ca="1" si="232"/>
-        <v>3.1556497051696196E-5</v>
+        <v>3.1556497051696224E-5</v>
       </c>
       <c r="S69">
         <f t="shared" ca="1" si="233"/>
-        <v>4.3802641552400104E-5</v>
+        <v>4.3802641552400131E-5</v>
       </c>
       <c r="T69">
         <f t="shared" ca="1" si="234"/>
-        <v>6.1474924897657866E-5</v>
+        <v>6.1474924897657906E-5</v>
       </c>
       <c r="U69">
         <f t="shared" ca="1" si="235"/>
-        <v>8.7408381691524118E-5</v>
+        <v>8.7408381691524172E-5</v>
       </c>
       <c r="V69">
         <f t="shared" ca="1" si="236"/>
-        <v>1.263793213260687E-4</v>
+        <v>1.2637932132606878E-4</v>
       </c>
       <c r="W69">
         <f t="shared" ca="1" si="237"/>
-        <v>1.8657960386840477E-4</v>
+        <v>1.8657960386840486E-4</v>
       </c>
       <c r="X69">
         <f t="shared" ca="1" si="238"/>
-        <v>2.8135837853468455E-4</v>
+        <v>2.8135837853468461E-4</v>
       </c>
       <c r="Y69">
         <f t="shared" ca="1" si="115"/>
-        <v>4.2575503882476154E-4</v>
+        <v>4.2575503882476165E-4</v>
       </c>
       <c r="Z69">
         <f t="shared" ca="1" si="116"/>
@@ -20842,7 +20839,7 @@
       </c>
       <c r="AB69">
         <f t="shared" ca="1" si="118"/>
-        <v>9.4568202485926915E-4</v>
+        <v>9.4568202485926936E-4</v>
       </c>
       <c r="AC69">
         <f t="shared" ca="1" si="119"/>
@@ -21117,87 +21114,87 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="95"/>
-        <v>9.8079754749915958E-7</v>
+        <v>9.8079754749916932E-7</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="96"/>
-        <v>1.9737526185161568E-6</v>
+        <v>1.9737526185161754E-6</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="97"/>
-        <v>2.9911327939139967E-6</v>
+        <v>2.991132793914023E-6</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="98"/>
-        <v>4.045762400071749E-6</v>
+        <v>4.0457624000717812E-6</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="99"/>
-        <v>5.1525025578531935E-6</v>
+        <v>5.1525025578532308E-6</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="100"/>
-        <v>6.332447136386117E-6</v>
+        <v>6.3324471363861568E-6</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="101"/>
-        <v>7.6237266464944884E-6</v>
+        <v>7.6237266464945299E-6</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="102"/>
-        <v>9.1069552311571002E-6</v>
+        <v>9.1069552311571408E-6</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="103"/>
-        <v>1.0957975868568217E-5</v>
+        <v>1.0957975868568256E-5</v>
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="228"/>
-        <v>1.3531390789701151E-5</v>
+        <v>1.3531390789701188E-5</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="229"/>
-        <v>1.7399494983442998E-5</v>
+        <v>1.7399494983443031E-5</v>
       </c>
       <c r="P70">
         <f t="shared" ca="1" si="230"/>
-        <v>2.3070636934840436E-5</v>
+        <v>2.3070636934840473E-5</v>
       </c>
       <c r="Q70">
         <f t="shared" ca="1" si="231"/>
-        <v>3.1174093622666013E-5</v>
+        <v>3.1174093622666054E-5</v>
       </c>
       <c r="R70">
         <f t="shared" ca="1" si="232"/>
-        <v>4.2610545137095987E-5</v>
+        <v>4.2610545137096021E-5</v>
       </c>
       <c r="S70">
         <f t="shared" ca="1" si="233"/>
-        <v>5.8702469718594513E-5</v>
+        <v>5.8702469718594547E-5</v>
       </c>
       <c r="T70">
         <f t="shared" ca="1" si="234"/>
-        <v>8.1398967668969418E-5</v>
+        <v>8.1398967668969485E-5</v>
       </c>
       <c r="U70">
         <f t="shared" ca="1" si="235"/>
-        <v>1.135720452707284E-4</v>
+        <v>1.1357204527072845E-4</v>
       </c>
       <c r="V70">
         <f t="shared" ca="1" si="236"/>
-        <v>1.5939844902704167E-4</v>
+        <v>1.5939844902704178E-4</v>
       </c>
       <c r="W70">
         <f t="shared" ca="1" si="237"/>
-        <v>2.2464386934135881E-4</v>
+        <v>2.2464386934135895E-4</v>
       </c>
       <c r="X70">
         <f t="shared" ca="1" si="238"/>
-        <v>3.1606194094525256E-4</v>
+        <v>3.1606194094525267E-4</v>
       </c>
       <c r="Y70">
         <f t="shared" ca="1" si="115"/>
-        <v>4.3766833410580286E-4</v>
+        <v>4.3766833410580303E-4</v>
       </c>
       <c r="Z70">
         <f t="shared" ca="1" si="116"/>
@@ -21205,11 +21202,11 @@
       </c>
       <c r="AA70">
         <f t="shared" ca="1" si="117"/>
-        <v>7.4234631089961916E-4</v>
+        <v>7.4234631089961927E-4</v>
       </c>
       <c r="AB70">
         <f t="shared" ca="1" si="118"/>
-        <v>9.1857501232002069E-4</v>
+        <v>9.1857501232002091E-4</v>
       </c>
       <c r="AC70">
         <f t="shared" ca="1" si="119"/>
@@ -21484,87 +21481,87 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="95"/>
-        <v>9.0118303574844247E-7</v>
+        <v>9.0118303574845094E-7</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="96"/>
-        <v>1.8206498318199465E-6</v>
+        <v>1.8206498318199626E-6</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="97"/>
-        <v>2.7785823257674768E-6</v>
+        <v>2.7785823257674996E-6</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="98"/>
-        <v>3.7996413084189924E-6</v>
+        <v>3.7996413084190208E-6</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="99"/>
-        <v>4.9171995810875766E-6</v>
+        <v>4.9171995810876105E-6</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="100"/>
-        <v>6.180831609644321E-6</v>
+        <v>6.1808316096443583E-6</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="101"/>
-        <v>7.6696503017002765E-6</v>
+        <v>7.6696503017003155E-6</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="102"/>
-        <v>9.5149406858441414E-6</v>
+        <v>9.5149406858441804E-6</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1934094816169525E-5</v>
+        <v>1.1934094816169564E-5</v>
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="228"/>
-        <v>1.5268306000851431E-5</v>
+        <v>1.5268306000851465E-5</v>
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="229"/>
-        <v>1.9993107832184747E-5</v>
+        <v>1.9993107832184788E-5</v>
       </c>
       <c r="P71">
         <f t="shared" ca="1" si="230"/>
-        <v>2.6669955636868444E-5</v>
+        <v>2.6669955636868485E-5</v>
       </c>
       <c r="Q71">
         <f t="shared" ca="1" si="231"/>
-        <v>3.6016738837908506E-5</v>
+        <v>3.6016738837908553E-5</v>
       </c>
       <c r="R71">
         <f t="shared" ca="1" si="232"/>
-        <v>4.9009120155427232E-5</v>
+        <v>4.9009120155427266E-5</v>
       </c>
       <c r="S71">
         <f t="shared" ca="1" si="233"/>
-        <v>6.6997724515912552E-5</v>
+        <v>6.6997724515912606E-5</v>
       </c>
       <c r="T71">
         <f t="shared" ca="1" si="234"/>
-        <v>9.1846430788896974E-5</v>
+        <v>9.1846430788897042E-5</v>
       </c>
       <c r="U71">
         <f t="shared" ca="1" si="235"/>
-        <v>1.2608238269537839E-4</v>
+        <v>1.2608238269537847E-4</v>
       </c>
       <c r="V71">
         <f t="shared" ca="1" si="236"/>
-        <v>1.7299856017001083E-4</v>
+        <v>1.7299856017001094E-4</v>
       </c>
       <c r="W71">
         <f t="shared" ca="1" si="237"/>
-        <v>2.365354835247364E-4</v>
+        <v>2.3653548352473654E-4</v>
       </c>
       <c r="X71">
         <f t="shared" ca="1" si="238"/>
-        <v>3.2057718179916411E-4</v>
+        <v>3.2057718179916421E-4</v>
       </c>
       <c r="Y71">
         <f t="shared" ca="1" si="115"/>
-        <v>4.272598672332405E-4</v>
+        <v>4.2725986723324055E-4</v>
       </c>
       <c r="Z71">
         <f t="shared" ca="1" si="116"/>
@@ -21851,87 +21848,87 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="95"/>
-        <v>8.032847636746701E-7</v>
+        <v>8.0328476367467709E-7</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="96"/>
-        <v>1.6290813472477199E-6</v>
+        <v>1.6290813472477338E-6</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="97"/>
-        <v>2.5029053689169841E-6</v>
+        <v>2.5029053689170036E-6</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="98"/>
-        <v>3.4570209267491816E-6</v>
+        <v>3.4570209267492066E-6</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="99"/>
-        <v>4.5358228484338195E-6</v>
+        <v>4.5358228484338483E-6</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="100"/>
-        <v>5.8040294194033341E-6</v>
+        <v>5.8040294194033672E-6</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="101"/>
-        <v>7.3591022648181738E-6</v>
+        <v>7.3591022648182094E-6</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="102"/>
-        <v>9.3490623943496846E-6</v>
+        <v>9.3490623943497185E-6</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1995156709414333E-5</v>
+        <v>1.1995156709414371E-5</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="228"/>
-        <v>1.5614630565350311E-5</v>
+        <v>1.5614630565350345E-5</v>
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="229"/>
-        <v>2.0634674707576145E-5</v>
+        <v>2.0634674707576189E-5</v>
       </c>
       <c r="P72">
         <f t="shared" ca="1" si="230"/>
-        <v>2.7599338942540109E-5</v>
+        <v>2.7599338942540153E-5</v>
       </c>
       <c r="Q72">
         <f t="shared" ca="1" si="231"/>
-        <v>3.7213785936672369E-5</v>
+        <v>3.7213785936672409E-5</v>
       </c>
       <c r="R72">
         <f t="shared" ca="1" si="232"/>
-        <v>5.0411472130791903E-5</v>
+        <v>5.0411472130791936E-5</v>
       </c>
       <c r="S72">
         <f t="shared" ca="1" si="233"/>
-        <v>6.8432877400731562E-5</v>
+        <v>6.8432877400731603E-5</v>
       </c>
       <c r="T72">
         <f t="shared" ca="1" si="234"/>
-        <v>9.2906648275327565E-5</v>
+        <v>9.290664827532762E-5</v>
       </c>
       <c r="U72">
         <f t="shared" ca="1" si="235"/>
-        <v>1.2591249455187742E-4</v>
+        <v>1.259124945518775E-4</v>
       </c>
       <c r="V72">
         <f t="shared" ca="1" si="236"/>
-        <v>1.6997792543288693E-4</v>
+        <v>1.6997792543288704E-4</v>
       </c>
       <c r="W72">
         <f t="shared" ca="1" si="237"/>
-        <v>2.2792232278841197E-4</v>
+        <v>2.2792232278841205E-4</v>
       </c>
       <c r="X72">
         <f t="shared" ca="1" si="238"/>
-        <v>3.0245143549342704E-4</v>
+        <v>3.0245143549342715E-4</v>
       </c>
       <c r="Y72">
         <f t="shared" ca="1" si="115"/>
-        <v>3.9556358581706227E-4</v>
+        <v>3.9556358581706232E-4</v>
       </c>
       <c r="Z72">
         <f t="shared" ca="1" si="116"/>
@@ -22218,79 +22215,79 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="95"/>
-        <v>6.8287467170252286E-7</v>
+        <v>6.8287467170252847E-7</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="96"/>
-        <v>1.3894854245792878E-6</v>
+        <v>1.389485424579299E-6</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="97"/>
-        <v>2.1469368759035679E-6</v>
+        <v>2.146936875903584E-6</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="98"/>
-        <v>2.9897141812269439E-6</v>
+        <v>2.989714181226965E-6</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="99"/>
-        <v>3.9650414664951988E-6</v>
+        <v>3.9650414664952225E-6</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="100"/>
-        <v>5.1403609547170409E-6</v>
+        <v>5.140360954717068E-6</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="101"/>
-        <v>6.6136669438194196E-6</v>
+        <v>6.6136669438194484E-6</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="102"/>
-        <v>8.5270499173221016E-6</v>
+        <v>8.5270499173221321E-6</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="103"/>
-        <v>1.108283906178784E-5</v>
+        <v>1.108283906178787E-5</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="228"/>
-        <v>1.4560384843559341E-5</v>
+        <v>1.4560384843559374E-5</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="229"/>
-        <v>1.933162149022945E-5</v>
+        <v>1.9331621490229484E-5</v>
       </c>
       <c r="P73">
         <f t="shared" ca="1" si="230"/>
-        <v>2.5878939489043505E-5</v>
+        <v>2.5878939489043546E-5</v>
       </c>
       <c r="Q73">
         <f t="shared" ca="1" si="231"/>
-        <v>3.4827593835448978E-5</v>
+        <v>3.4827593835449012E-5</v>
       </c>
       <c r="R73">
         <f t="shared" ca="1" si="232"/>
-        <v>4.6990105030336461E-5</v>
+        <v>4.6990105030336495E-5</v>
       </c>
       <c r="S73">
         <f t="shared" ca="1" si="233"/>
-        <v>6.3415664680894257E-5</v>
+        <v>6.3415664680894297E-5</v>
       </c>
       <c r="T73">
         <f t="shared" ca="1" si="234"/>
-        <v>8.5434790359804319E-5</v>
+        <v>8.543479035980436E-5</v>
       </c>
       <c r="U73">
         <f t="shared" ca="1" si="235"/>
-        <v>1.1468302180391688E-4</v>
+        <v>1.1468302180391696E-4</v>
       </c>
       <c r="V73">
         <f t="shared" ca="1" si="236"/>
-        <v>1.5307832422124757E-4</v>
+        <v>1.5307832422124763E-4</v>
       </c>
       <c r="W73">
         <f t="shared" ca="1" si="237"/>
-        <v>2.0272444670259754E-4</v>
+        <v>2.0272444670259757E-4</v>
       </c>
       <c r="X73">
         <f t="shared" ca="1" si="238"/>
@@ -22585,75 +22582,75 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="95"/>
-        <v>5.3872849855613733E-7</v>
+        <v>5.3872849855614178E-7</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="96"/>
-        <v>1.0990488034633472E-6</v>
+        <v>1.0990488034633559E-6</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="97"/>
-        <v>1.7056425288910646E-6</v>
+        <v>1.7056425288910769E-6</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="98"/>
-        <v>2.3898574557598387E-6</v>
+        <v>2.3898574557598547E-6</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="99"/>
-        <v>3.1942678816030018E-6</v>
+        <v>3.19426788160302E-6</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="100"/>
-        <v>4.1787059891502255E-6</v>
+        <v>4.1787059891502458E-6</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="101"/>
-        <v>5.4281546384203731E-6</v>
+        <v>5.428154638420396E-6</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="102"/>
-        <v>7.0626312693314785E-6</v>
+        <v>7.0626312693315039E-6</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="103"/>
-        <v>9.2487647768555986E-6</v>
+        <v>9.248764776855624E-6</v>
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="228"/>
-        <v>1.2212448256869785E-5</v>
+        <v>1.2212448256869812E-5</v>
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="229"/>
-        <v>1.6252486920738823E-5</v>
+        <v>1.6252486920738853E-5</v>
       </c>
       <c r="P74">
         <f t="shared" ca="1" si="230"/>
-        <v>2.1757203687955505E-5</v>
+        <v>2.1757203687955542E-5</v>
       </c>
       <c r="Q74">
         <f t="shared" ca="1" si="231"/>
-        <v>2.9227544885743591E-5</v>
+        <v>2.9227544885743632E-5</v>
       </c>
       <c r="R74">
         <f t="shared" ca="1" si="232"/>
-        <v>3.9305689474210727E-5</v>
+        <v>3.9305689474210761E-5</v>
       </c>
       <c r="S74">
         <f t="shared" ca="1" si="233"/>
-        <v>5.2804885932704732E-5</v>
+        <v>5.2804885932704772E-5</v>
       </c>
       <c r="T74">
         <f t="shared" ca="1" si="234"/>
-        <v>7.073382667907856E-5</v>
+        <v>7.0733826679078601E-5</v>
       </c>
       <c r="U74">
         <f t="shared" ca="1" si="235"/>
-        <v>9.4306478082738289E-5</v>
+        <v>9.430647808273833E-5</v>
       </c>
       <c r="V74">
         <f t="shared" ca="1" si="236"/>
-        <v>1.2492790294558892E-4</v>
+        <v>1.2492790294558895E-4</v>
       </c>
       <c r="W74">
         <f t="shared" ca="1" si="237"/>
@@ -22952,75 +22949,75 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="95"/>
-        <v>3.7299051905868253E-7</v>
+        <v>3.7299051905868544E-7</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="96"/>
-        <v>7.6233876182690415E-7</v>
+        <v>7.6233876182690997E-7</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="97"/>
-        <v>1.1867269804375103E-6</v>
+        <v>1.1867269804375188E-6</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="98"/>
-        <v>1.6698052313183522E-6</v>
+        <v>1.6698052313183627E-6</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="99"/>
-        <v>2.2434666150067533E-6</v>
+        <v>2.2434666150067656E-6</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="100"/>
-        <v>2.9520404818604936E-6</v>
+        <v>2.9520404818605072E-6</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="101"/>
-        <v>3.8576143513803824E-6</v>
+        <v>3.8576143513803976E-6</v>
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="102"/>
-        <v>5.0465557447278542E-6</v>
+        <v>5.0465557447278712E-6</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="103"/>
-        <v>6.6371405194333019E-6</v>
+        <v>6.6371405194333197E-6</v>
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="228"/>
-        <v>8.7881564863253927E-6</v>
+        <v>8.7881564863254113E-6</v>
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="229"/>
-        <v>1.1708674247900568E-5</v>
+        <v>1.1708674247900588E-5</v>
       </c>
       <c r="P75">
         <f t="shared" ca="1" si="230"/>
-        <v>1.5669843456296125E-5</v>
+        <v>1.5669843456296149E-5</v>
       </c>
       <c r="Q75">
         <f t="shared" ca="1" si="231"/>
-        <v>2.1019692545359191E-5</v>
+        <v>2.1019692545359218E-5</v>
       </c>
       <c r="R75">
         <f t="shared" ca="1" si="232"/>
-        <v>2.8200222048058137E-5</v>
+        <v>2.8200222048058168E-5</v>
       </c>
       <c r="S75">
         <f t="shared" ca="1" si="233"/>
-        <v>3.7764362896635417E-5</v>
+        <v>3.7764362896635444E-5</v>
       </c>
       <c r="T75">
         <f t="shared" ca="1" si="234"/>
-        <v>5.0389152341066921E-5</v>
+        <v>5.0389152341066955E-5</v>
       </c>
       <c r="U75">
         <f t="shared" ca="1" si="235"/>
-        <v>6.688116090236882E-5</v>
+        <v>6.6881160902368847E-5</v>
       </c>
       <c r="V75">
         <f t="shared" ca="1" si="236"/>
-        <v>8.8172321246709256E-5</v>
+        <v>8.8172321246709269E-5</v>
       </c>
       <c r="W75">
         <f t="shared" ca="1" si="237"/>
@@ -23319,75 +23316,75 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="95"/>
-        <v>1.9089481585169034E-7</v>
+        <v>1.9089481585169182E-7</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="96"/>
-        <v>3.9058874434807956E-7</v>
+        <v>3.9058874434808242E-7</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="97"/>
-        <v>6.0912139971372503E-7</v>
+        <v>6.0912139971372927E-7</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="98"/>
-        <v>8.5916987406931139E-7</v>
+        <v>8.5916987406931689E-7</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1577528652451705E-6</v>
+        <v>1.1577528652451768E-6</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="100"/>
-        <v>1.5283749719046193E-6</v>
+        <v>1.5283749719046261E-6</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="101"/>
-        <v>2.0037065405128145E-6</v>
+        <v>2.0037065405128225E-6</v>
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="102"/>
-        <v>2.6288368387662592E-6</v>
+        <v>2.6288368387662677E-6</v>
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="103"/>
-        <v>3.4650850698243702E-6</v>
+        <v>3.4650850698243795E-6</v>
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="228"/>
-        <v>4.594362921097923E-6</v>
+        <v>4.5943629210979332E-6</v>
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="229"/>
-        <v>6.1242101282419322E-6</v>
+        <v>6.1242101282419432E-6</v>
       </c>
       <c r="P76">
         <f t="shared" ca="1" si="230"/>
-        <v>8.1938033439692422E-6</v>
+        <v>8.193803343969254E-6</v>
       </c>
       <c r="Q76">
         <f t="shared" ca="1" si="231"/>
-        <v>1.0981159791338917E-5</v>
+        <v>1.098115979133893E-5</v>
       </c>
       <c r="R76">
         <f t="shared" ca="1" si="232"/>
-        <v>1.4711143276027234E-5</v>
+        <v>1.4711143276027249E-5</v>
       </c>
       <c r="S76">
         <f t="shared" ca="1" si="233"/>
-        <v>1.9663191264711891E-5</v>
+        <v>1.9663191264711905E-5</v>
       </c>
       <c r="T76">
         <f t="shared" ca="1" si="234"/>
-        <v>2.6177258886184913E-5</v>
+        <v>2.617725888618493E-5</v>
       </c>
       <c r="U76">
         <f t="shared" ca="1" si="235"/>
-        <v>3.4656691938960842E-5</v>
+        <v>3.4656691938960855E-5</v>
       </c>
       <c r="V76">
         <f t="shared" ca="1" si="236"/>
-        <v>4.5568347967289641E-5</v>
+        <v>4.5568347967289648E-5</v>
       </c>
       <c r="W76">
         <f t="shared" ca="1" si="237"/>
@@ -23958,47 +23955,47 @@
     <row r="80" spans="3:94">
       <c r="N80">
         <f ca="1">(N57-N56)/0.1</f>
-        <v>-3.7049447810952562E-5</v>
+        <v>-3.7049447810952806E-5</v>
       </c>
       <c r="O80">
         <f t="shared" ref="O80:X80" ca="1" si="272">(O57-O56)/0.1</f>
-        <v>-3.9031182864869995E-5</v>
+        <v>-3.9031182864870205E-5</v>
       </c>
       <c r="P80">
         <f t="shared" ca="1" si="272"/>
-        <v>-4.8477010383058342E-5</v>
+        <v>-4.8477010383058539E-5</v>
       </c>
       <c r="Q80">
         <f t="shared" ca="1" si="272"/>
-        <v>-6.4532525385425484E-5</v>
+        <v>-6.4532525385425701E-5</v>
       </c>
       <c r="R80">
         <f t="shared" ca="1" si="272"/>
-        <v>-8.8780813345784373E-5</v>
+        <v>-8.8780813345784644E-5</v>
       </c>
       <c r="S80">
         <f t="shared" ca="1" si="272"/>
-        <v>-1.2480987583242297E-4</v>
+        <v>-1.2480987583242327E-4</v>
       </c>
       <c r="T80">
         <f t="shared" ca="1" si="272"/>
-        <v>-1.7920784328134758E-4</v>
+        <v>-1.7920784328134793E-4</v>
       </c>
       <c r="U80">
         <f t="shared" ca="1" si="272"/>
-        <v>-2.6446284592300838E-4</v>
+        <v>-2.6446284592300875E-4</v>
       </c>
       <c r="V80">
         <f t="shared" ca="1" si="272"/>
-        <v>-4.0656277947734353E-4</v>
+        <v>-4.0656277947734396E-4</v>
       </c>
       <c r="W80">
         <f t="shared" ca="1" si="272"/>
-        <v>-6.6671492786289741E-4</v>
+        <v>-6.6671492786289828E-4</v>
       </c>
       <c r="X80">
         <f t="shared" ca="1" si="272"/>
-        <v>-1.2104293030669991E-3</v>
+        <v>-1.2104293030670004E-3</v>
       </c>
       <c r="BB80">
         <f ca="1">(BB67-BB66)/0.1</f>
@@ -24048,47 +24045,47 @@
     <row r="81" spans="5:65">
       <c r="N81">
         <f ca="1">(N57-N58)/0.1</f>
-        <v>-8.2993077021931581E-5</v>
+        <v>-8.2993077021931933E-5</v>
       </c>
       <c r="O81">
         <f t="shared" ref="O81:X81" ca="1" si="274">(O57-O58)/0.1</f>
-        <v>-1.0027328414728908E-4</v>
+        <v>-1.0027328414728942E-4</v>
       </c>
       <c r="P81">
         <f t="shared" ca="1" si="274"/>
-        <v>-1.3041504382275049E-4</v>
+        <v>-1.3041504382275084E-4</v>
       </c>
       <c r="Q81">
         <f t="shared" ca="1" si="274"/>
-        <v>-1.7434412329881435E-4</v>
+        <v>-1.743441232988147E-4</v>
       </c>
       <c r="R81">
         <f t="shared" ca="1" si="274"/>
-        <v>-2.358922461060564E-4</v>
+        <v>-2.3589224610605681E-4</v>
       </c>
       <c r="S81">
         <f t="shared" ca="1" si="274"/>
-        <v>-3.2144178847954148E-4</v>
+        <v>-3.2144178847954197E-4</v>
       </c>
       <c r="T81">
         <f t="shared" ca="1" si="274"/>
-        <v>-4.4098043214319622E-4</v>
+        <v>-4.4098043214319682E-4</v>
       </c>
       <c r="U81">
         <f t="shared" ca="1" si="274"/>
-        <v>-6.1102976531261636E-4</v>
+        <v>-6.110297653126169E-4</v>
       </c>
       <c r="V81">
         <f t="shared" ca="1" si="274"/>
-        <v>-8.6224625915023946E-4</v>
+        <v>-8.6224625915024011E-4</v>
       </c>
       <c r="W81">
         <f t="shared" ca="1" si="274"/>
-        <v>-1.2611587146977817E-3</v>
+        <v>-1.2611587146977828E-3</v>
       </c>
       <c r="X81">
         <f t="shared" ca="1" si="274"/>
-        <v>-1.9794022390177447E-3</v>
+        <v>-1.979402239017746E-3</v>
       </c>
       <c r="BB81">
         <f ca="1">(BB67-BB68)/0.1</f>
@@ -24138,47 +24135,47 @@
     <row r="82" spans="5:65">
       <c r="N82">
         <f ca="1">N80+N81</f>
-        <v>-1.2004252483288414E-4</v>
+        <v>-1.2004252483288474E-4</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82:X82" ca="1" si="276">O80+O81</f>
-        <v>-1.3930446701215907E-4</v>
+        <v>-1.3930446701215961E-4</v>
       </c>
       <c r="P82">
         <f t="shared" ca="1" si="276"/>
-        <v>-1.7889205420580884E-4</v>
+        <v>-1.7889205420580938E-4</v>
       </c>
       <c r="Q82">
         <f t="shared" ca="1" si="276"/>
-        <v>-2.3887664868423985E-4</v>
+        <v>-2.3887664868424039E-4</v>
       </c>
       <c r="R82">
         <f t="shared" ca="1" si="276"/>
-        <v>-3.2467305945184079E-4</v>
+        <v>-3.2467305945184144E-4</v>
       </c>
       <c r="S82">
         <f t="shared" ca="1" si="276"/>
-        <v>-4.4625166431196443E-4</v>
+        <v>-4.4625166431196524E-4</v>
       </c>
       <c r="T82">
         <f t="shared" ca="1" si="276"/>
-        <v>-6.2018827542454377E-4</v>
+        <v>-6.2018827542454475E-4</v>
       </c>
       <c r="U82">
         <f t="shared" ca="1" si="276"/>
-        <v>-8.7549261123562468E-4</v>
+        <v>-8.7549261123562566E-4</v>
       </c>
       <c r="V82">
         <f t="shared" ca="1" si="276"/>
-        <v>-1.268809038627583E-3</v>
+        <v>-1.2688090386275841E-3</v>
       </c>
       <c r="W82">
         <f t="shared" ca="1" si="276"/>
-        <v>-1.9278736425606792E-3</v>
+        <v>-1.927873642560681E-3</v>
       </c>
       <c r="X82">
         <f t="shared" ca="1" si="276"/>
-        <v>-3.189831542084744E-3</v>
+        <v>-3.1898315420847466E-3</v>
       </c>
       <c r="BB82">
         <f ca="1">BB80+BB81</f>
@@ -24296,47 +24293,47 @@
     <row r="84" spans="5:65">
       <c r="N84" s="2">
         <f ca="1">N82*N83</f>
-        <v>-1.0628790603930641E-15</v>
+        <v>-1.0628790603930695E-15</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" ref="O84:X84" ca="1" si="278">O82*O83</f>
-        <v>-1.2334279140876585E-15</v>
+        <v>-1.2334279140876634E-15</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-1.5839438461558297E-15</v>
+        <v>-1.5839438461558344E-15</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-2.1150587115425038E-15</v>
+        <v>-2.1150587115425086E-15</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-2.8747162461429788E-15</v>
+        <v>-2.8747162461429847E-15</v>
       </c>
       <c r="S84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-3.9511960475927128E-15</v>
+        <v>-3.9511960475927199E-15</v>
       </c>
       <c r="T84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-5.4912634699054457E-15</v>
+        <v>-5.4912634699054544E-15</v>
       </c>
       <c r="U84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-7.7517760085989174E-15</v>
+        <v>-7.7517760085989253E-15</v>
       </c>
       <c r="V84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-1.1234273526586831E-14</v>
+        <v>-1.1234273526586841E-14</v>
       </c>
       <c r="W84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-1.7069755310579111E-14</v>
+        <v>-1.7069755310579126E-14</v>
       </c>
       <c r="X84" s="2">
         <f t="shared" ca="1" si="278"/>
-        <v>-2.8243367564811772E-14</v>
+        <v>-2.8243367564811797E-14</v>
       </c>
       <c r="BB84" s="2">
         <f ca="1">BB83*BB82</f>
@@ -24386,43 +24383,43 @@
     <row r="85" spans="5:65">
       <c r="N85" s="2">
         <f ca="1">(N84+O84)/2</f>
-        <v>-1.1481534872403613E-15</v>
+        <v>-1.1481534872403664E-15</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" ref="O85:W85" ca="1" si="280">(O84+P84)/2</f>
-        <v>-1.4086858801217441E-15</v>
+        <v>-1.4086858801217488E-15</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" ca="1" si="280"/>
-        <v>-1.8495012788491667E-15</v>
+        <v>-1.8495012788491714E-15</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" ca="1" si="280"/>
-        <v>-2.4948874788427413E-15</v>
+        <v>-2.4948874788427468E-15</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" ca="1" si="280"/>
-        <v>-3.412956146867846E-15</v>
+        <v>-3.4129561468678523E-15</v>
       </c>
       <c r="S85" s="2">
         <f t="shared" ca="1" si="280"/>
-        <v>-4.7212297587490792E-15</v>
+        <v>-4.7212297587490871E-15</v>
       </c>
       <c r="T85" s="2">
         <f t="shared" ca="1" si="280"/>
-        <v>-6.6215197392521816E-15</v>
+        <v>-6.6215197392521902E-15</v>
       </c>
       <c r="U85" s="2">
         <f t="shared" ca="1" si="280"/>
-        <v>-9.4930247675928751E-15</v>
+        <v>-9.493024767592883E-15</v>
       </c>
       <c r="V85" s="2">
         <f t="shared" ca="1" si="280"/>
-        <v>-1.4152014418582971E-14</v>
+        <v>-1.4152014418582984E-14</v>
       </c>
       <c r="W85" s="2">
         <f t="shared" ca="1" si="280"/>
-        <v>-2.2656561437695443E-14</v>
+        <v>-2.2656561437695462E-14</v>
       </c>
       <c r="BB85" s="2">
         <f ca="1">(BB84+BC84)/2</f>
@@ -24468,47 +24465,47 @@
     <row r="86" spans="5:65">
       <c r="N86" s="2">
         <f ca="1">N85*0.1</f>
-        <v>-1.1481534872403613E-16</v>
+        <v>-1.1481534872403665E-16</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" ref="O86:W86" ca="1" si="282">O85*0.1</f>
-        <v>-1.4086858801217442E-16</v>
+        <v>-1.4086858801217489E-16</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" ca="1" si="282"/>
-        <v>-1.8495012788491667E-16</v>
+        <v>-1.8495012788491714E-16</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" ca="1" si="282"/>
-        <v>-2.4948874788427413E-16</v>
+        <v>-2.4948874788427467E-16</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" ca="1" si="282"/>
-        <v>-3.412956146867846E-16</v>
+        <v>-3.4129561468678524E-16</v>
       </c>
       <c r="S86" s="2">
         <f t="shared" ca="1" si="282"/>
-        <v>-4.7212297587490791E-16</v>
+        <v>-4.7212297587490869E-16</v>
       </c>
       <c r="T86" s="2">
         <f t="shared" ca="1" si="282"/>
-        <v>-6.621519739252182E-16</v>
+        <v>-6.6215197392521908E-16</v>
       </c>
       <c r="U86" s="2">
         <f t="shared" ca="1" si="282"/>
-        <v>-9.4930247675928763E-16</v>
+        <v>-9.4930247675928841E-16</v>
       </c>
       <c r="V86" s="2">
         <f t="shared" ca="1" si="282"/>
-        <v>-1.4152014418582971E-15</v>
+        <v>-1.4152014418582985E-15</v>
       </c>
       <c r="W86" s="2">
         <f t="shared" ca="1" si="282"/>
-        <v>-2.2656561437695443E-15</v>
+        <v>-2.2656561437695463E-15</v>
       </c>
       <c r="Y86" s="2">
         <f ca="1">SUM(N86:W86)</f>
-        <v>-6.7958534393794413E-15</v>
+        <v>-6.79585343937945E-15</v>
       </c>
       <c r="BB86" s="2">
         <f ca="1">BB85*0.1</f>
@@ -29074,8 +29071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707D1448-78B6-47BA-9ED4-6A32E00C7A71}">
   <dimension ref="A1:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="R37" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32462,7 +32459,7 @@
         <v>10</v>
       </c>
       <c r="AI26" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="3:49">
@@ -32757,179 +32754,179 @@
       </c>
       <c r="E30">
         <f t="shared" ref="E30:AV36" ca="1" si="16">0.25*(F30+E29+D30+E31)</f>
-        <v>4.0004594728389204E-7</v>
+        <v>4.0058279808951157E-7</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4816983858071822E-7</v>
+        <v>8.492173632206102E-7</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4283941578767378E-6</v>
+        <v>1.4299554848355764E-6</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3146114867154584E-6</v>
+        <v>2.316770331207961E-6</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="16"/>
-        <v>3.8528619894619125E-6</v>
+        <v>3.855857695520374E-6</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="16"/>
-        <v>6.657076164031832E-6</v>
+        <v>6.6613722637011588E-6</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.1675715383634674E-5</v>
+        <v>1.1682004708952484E-5</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="16"/>
-        <v>2.0343347531368431E-5</v>
+        <v>2.0352550015728733E-5</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="16"/>
-        <v>3.4619903624311284E-5</v>
+        <v>3.4633106508287262E-5</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="16"/>
-        <v>5.6586108649422118E-5</v>
+        <v>5.6604330792288068E-5</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="16"/>
-        <v>8.7234576550426554E-5</v>
+        <v>8.7258235600584937E-5</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2551294041612918E-4</v>
+        <v>1.2554123144638727E-4</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7411896158580834E-4</v>
+        <v>1.7415046871415853E-4</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="16"/>
-        <v>2.4603268373120802E-4</v>
+        <v>2.4606659142231805E-4</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="16"/>
-        <v>3.727322344727913E-4</v>
+        <v>3.7276953413365902E-4</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="16"/>
-        <v>6.1117560433891522E-4</v>
+        <v>6.1121963768592108E-4</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0415343307676715E-3</v>
+        <v>1.0415900020905515E-3</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7734157216999281E-3</v>
+        <v>1.7734888222030935E-3</v>
       </c>
       <c r="W30">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9296849975051142E-3</v>
+        <v>2.9297813670951674E-3</v>
       </c>
       <c r="X30">
         <f t="shared" ca="1" si="16"/>
-        <v>4.5617496924916269E-3</v>
+        <v>4.5618733714829357E-3</v>
       </c>
       <c r="Y30">
         <f t="shared" ca="1" si="16"/>
-        <v>6.4457930438055963E-3</v>
+        <v>6.4459427367291253E-3</v>
       </c>
       <c r="Z30">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8777068631632214E-3</v>
+        <v>7.8778723032560827E-3</v>
       </c>
       <c r="AA30">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2203658558154587E-3</v>
+        <v>8.2205322730848716E-3</v>
       </c>
       <c r="AB30">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2912105867543684E-3</v>
+        <v>7.2913661744604509E-3</v>
       </c>
       <c r="AC30">
         <f t="shared" ca="1" si="16"/>
-        <v>5.5885945599512352E-3</v>
+        <v>5.5887365756026475E-3</v>
       </c>
       <c r="AD30">
         <f t="shared" ca="1" si="16"/>
-        <v>4.1019828102463749E-3</v>
+        <v>4.1021189185839364E-3</v>
       </c>
       <c r="AE30">
         <f t="shared" ca="1" si="16"/>
-        <v>3.2985935137415734E-3</v>
+        <v>3.2987362805839381E-3</v>
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="16"/>
-        <v>3.298536311306618E-3</v>
+        <v>3.2986992749431329E-3</v>
       </c>
       <c r="AG30">
         <f t="shared" ca="1" si="16"/>
-        <v>4.1018135891087923E-3</v>
+        <v>4.1020086449746699E-3</v>
       </c>
       <c r="AH30">
         <f t="shared" ca="1" si="16"/>
-        <v>5.5883228032303986E-3</v>
+        <v>5.5885566225898952E-3</v>
       </c>
       <c r="AI30">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2908580796662049E-3</v>
+        <v>7.2911260064487896E-3</v>
       </c>
       <c r="AJ30">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2199662381250739E-3</v>
+        <v>8.2202465343397674E-3</v>
       </c>
       <c r="AK30">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8772805160174583E-3</v>
+        <v>7.877543226146054E-3</v>
       </c>
       <c r="AL30">
         <f t="shared" ca="1" si="16"/>
-        <v>6.445316227837645E-3</v>
+        <v>6.4455364734410849E-3</v>
       </c>
       <c r="AM30">
         <f t="shared" ca="1" si="16"/>
-        <v>4.5611262299449905E-3</v>
+        <v>4.5612938256747101E-3</v>
       </c>
       <c r="AN30">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9287189782532331E-3</v>
+        <v>2.9288392978210351E-3</v>
       </c>
       <c r="AO30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7717770992074337E-3</v>
+        <v>1.7718614760452228E-3</v>
       </c>
       <c r="AP30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0386909130708521E-3</v>
+        <v>1.0387505294810859E-3</v>
       </c>
       <c r="AQ30">
         <f t="shared" ca="1" si="16"/>
-        <v>6.0630431458135055E-4</v>
+        <v>6.0634799792122788E-4</v>
       </c>
       <c r="AR30">
         <f t="shared" ca="1" si="16"/>
-        <v>3.6466218304635864E-4</v>
+        <v>3.6469599161251194E-4</v>
       </c>
       <c r="AS30">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3331730777536563E-4</v>
+        <v>2.3334453945196448E-4</v>
       </c>
       <c r="AT30">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5522442714197013E-4</v>
+        <v>1.5524576832398479E-4</v>
       </c>
       <c r="AU30">
         <f t="shared" ca="1" si="16"/>
-        <v>9.8386749073191634E-5</v>
+        <v>9.8401518390946565E-5</v>
       </c>
       <c r="AV30">
         <f t="shared" ca="1" si="16"/>
-        <v>4.8383825288168622E-5</v>
+        <v>4.8391250811877524E-5</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -32944,179 +32941,179 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="16"/>
-        <v>7.5259915039528348E-7</v>
+        <v>7.5357369275481217E-7</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5652386837849375E-6</v>
+        <v>1.5671082765494486E-6</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="16"/>
-        <v>2.5522246809948513E-6</v>
+        <v>2.5549299554563697E-6</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="16"/>
-        <v>3.979146972412956E-6</v>
+        <v>3.9827435780872058E-6</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="16"/>
-        <v>6.4424949026884515E-6</v>
+        <v>6.4473151814649186E-6</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.1103697768230725E-5</v>
+        <v>1.111052676631979E-5</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9708300846746212E-5</v>
+        <v>1.9718327638274967E-5</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="16"/>
-        <v>3.5086379751772294E-5</v>
+        <v>3.5101239381219093E-5</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="16"/>
-        <v>6.1562496791043312E-5</v>
+        <v>6.1584284741227936E-5</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0450688868608824E-4</v>
+        <v>1.0453788264502774E-4</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.6686099598665612E-4</v>
+        <v>1.6690254380864373E-4</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="16"/>
-        <v>2.4072376053801888E-4</v>
+        <v>2.4077388983677984E-4</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="16"/>
-        <v>3.2495820607893373E-4</v>
+        <v>3.2501322228178122E-4</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="16"/>
-        <v>4.3730948177041716E-4</v>
+        <v>4.3736662216909095E-4</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="16"/>
-        <v>6.3375396756742486E-4</v>
+        <v>6.3381413553684793E-4</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0304761523388811E-3</v>
+        <v>1.030545559445814E-3</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7815980281956291E-3</v>
+        <v>1.7816854935085785E-3</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="16"/>
-        <v>3.1225126621511022E-3</v>
+        <v>3.1226287071574235E-3</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3836659057864963E-3</v>
+        <v>5.3838221986915822E-3</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="16"/>
-        <v>8.8716373297092772E-3</v>
+        <v>8.8718443576391963E-3</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3343854818763842E-2</v>
+        <v>1.3344114532032101E-2</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.6844818724139819E-2</v>
+        <v>1.6845110243082835E-2</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7712692835667888E-2</v>
+        <v>1.7712984237652461E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5356015999922786E-2</v>
+        <v>1.5356280927332933E-2</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0961306409706644E-2</v>
+        <v>1.0961537843983347E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="16"/>
-        <v>7.5208621012001894E-3</v>
+        <v>7.5210771863588842E-3</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="16"/>
-        <v>5.7939838213075107E-3</v>
+        <v>5.7942069076293914E-3</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="16"/>
-        <v>5.7938892872505246E-3</v>
+        <v>5.794145435989103E-3</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="16"/>
-        <v>7.520578723413638E-3</v>
+        <v>7.5208914977001416E-3</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.096083972755967E-2</v>
+        <v>1.096122694860608E-2</v>
       </c>
       <c r="AI31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5355392604224994E-2</v>
+        <v>1.5355853696601248E-2</v>
       </c>
       <c r="AJ31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7711980302541418E-2</v>
+        <v>1.7712472482775563E-2</v>
       </c>
       <c r="AK31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.684406894040303E-2</v>
+        <v>1.6844530376694242E-2</v>
       </c>
       <c r="AL31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.334304217980186E-2</v>
+        <v>1.3343421567209393E-2</v>
       </c>
       <c r="AM31">
         <f t="shared" ca="1" si="16"/>
-        <v>8.8706036690491367E-3</v>
+        <v>8.8708816215182593E-3</v>
       </c>
       <c r="AN31">
         <f t="shared" ca="1" si="16"/>
-        <v>5.382065909912523E-3</v>
+        <v>5.3822591197275034E-3</v>
       </c>
       <c r="AO31">
         <f t="shared" ca="1" si="16"/>
-        <v>3.1197630989788869E-3</v>
+        <v>3.1198957288378869E-3</v>
       </c>
       <c r="AP31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7767280421550453E-3</v>
+        <v>1.7768208028505279E-3</v>
       </c>
       <c r="AQ31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0218983598124045E-3</v>
+        <v>1.0219665320874353E-3</v>
       </c>
       <c r="AR31">
         <f t="shared" ca="1" si="16"/>
-        <v>6.1905429007247132E-4</v>
+        <v>6.1910819800761914E-4</v>
       </c>
       <c r="AS31">
         <f t="shared" ca="1" si="16"/>
-        <v>4.1340491244344299E-4</v>
+        <v>4.1345016838203726E-4</v>
       </c>
       <c r="AT31">
         <f t="shared" ca="1" si="16"/>
-        <v>2.8921089847271726E-4</v>
+        <v>2.8924767733817043E-4</v>
       </c>
       <c r="AU31">
         <f t="shared" ca="1" si="16"/>
-        <v>1.8994993813508906E-4</v>
+        <v>1.8997597675306374E-4</v>
       </c>
       <c r="AV31">
         <f t="shared" ca="1" si="16"/>
-        <v>9.5152981875192629E-5</v>
+        <v>9.5166224086922944E-5</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -33131,179 +33128,179 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0460290550610913E-6</v>
+        <v>1.0473220746134568E-6</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1094553360846868E-6</v>
+        <v>2.1118706544042932E-6</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="16"/>
-        <v>3.2381530356299322E-6</v>
+        <v>3.2414679239817408E-6</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="16"/>
-        <v>4.6098938440470965E-6</v>
+        <v>4.6139416584056086E-6</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="16"/>
-        <v>6.8378091074203012E-6</v>
+        <v>6.8427453606524745E-6</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.16120186241475E-5</v>
+        <v>1.1618803431946367E-5</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.0975005440462938E-5</v>
+        <v>2.0985001080335237E-5</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="16"/>
-        <v>3.8742729507822378E-5</v>
+        <v>3.875788001872782E-5</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2053553705630929E-5</v>
+        <v>7.2076726740574572E-5</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3304180313668512E-4</v>
+        <v>1.3307708087399069E-4</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3501051933902883E-4</v>
+        <v>2.3506226364125219E-4</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="16"/>
-        <v>3.4560020921336229E-4</v>
+        <v>3.4566432671554186E-4</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="16"/>
-        <v>4.4772027072847385E-4</v>
+        <v>4.4778904058366293E-4</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="16"/>
-        <v>5.4453323586159353E-4</v>
+        <v>5.4459969638247143E-4</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="16"/>
-        <v>6.9454027872527745E-4</v>
+        <v>6.9460299845823146E-4</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0954273798010092E-3</v>
+        <v>1.0954960953719456E-3</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9319344720943878E-3</v>
+        <v>1.9320203694215758E-3</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="16"/>
-        <v>3.5514596684302815E-3</v>
+        <v>3.551575697817254E-3</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6109493723055177E-3</v>
+        <v>6.6111121489671647E-3</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2197439424198472E-2</v>
+        <v>1.2197670408698428E-2</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1213370120562802E-2</v>
+        <v>2.1213688851515429E-2</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.8445237735743763E-2</v>
+        <v>2.8445608779247736E-2</v>
       </c>
       <c r="AA32">
         <f t="shared" ca="1" si="16"/>
-        <v>3.0429778573553778E-2</v>
+        <v>3.043014590317503E-2</v>
       </c>
       <c r="AB32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.5459034361744331E-2</v>
+        <v>2.5459349763551853E-2</v>
       </c>
       <c r="AC32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.537990590326734E-2</v>
+        <v>1.5380153047269918E-2</v>
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="16"/>
-        <v>9.2263210485501491E-3</v>
+        <v>9.2265360996900397E-3</v>
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="16"/>
-        <v>6.5627488161746871E-3</v>
+        <v>6.5629669481208422E-3</v>
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="16"/>
-        <v>6.5626479289345894E-3</v>
+        <v>6.5629009753086715E-3</v>
       </c>
       <c r="AG32">
         <f t="shared" ca="1" si="16"/>
-        <v>9.2260101174348411E-3</v>
+        <v>9.2263310878877049E-3</v>
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5379362977384606E-2</v>
+        <v>1.5379788851517215E-2</v>
       </c>
       <c r="AI32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.5458246240706313E-2</v>
+        <v>2.5458806187810094E-2</v>
       </c>
       <c r="AJ32">
         <f t="shared" ca="1" si="16"/>
-        <v>3.0428858758910195E-2</v>
+        <v>3.0429483046420236E-2</v>
       </c>
       <c r="AK32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.844429748427834E-2</v>
+        <v>2.8444883059112948E-2</v>
       </c>
       <c r="AL32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.121242868694042E-2</v>
+        <v>2.1212890163196853E-2</v>
       </c>
       <c r="AM32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2196348455741876E-2</v>
+        <v>1.2196654963746573E-2</v>
       </c>
       <c r="AN32">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6092893392603498E-3</v>
+        <v>6.6094881628452375E-3</v>
       </c>
       <c r="AO32">
         <f t="shared" ca="1" si="16"/>
-        <v>3.5485565703321058E-3</v>
+        <v>3.5486876931804501E-3</v>
       </c>
       <c r="AP32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9266129440951318E-3</v>
+        <v>1.9267030960634776E-3</v>
       </c>
       <c r="AQ32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0855472650233408E-3</v>
+        <v>1.0856140583815025E-3</v>
       </c>
       <c r="AR32">
         <f t="shared" ca="1" si="16"/>
-        <v>6.7628544576630613E-4</v>
+        <v>6.7634091760708124E-4</v>
       </c>
       <c r="AS32">
         <f t="shared" ca="1" si="16"/>
-        <v>5.120667958967587E-4</v>
+        <v>5.1211856759372722E-4</v>
       </c>
       <c r="AT32">
         <f t="shared" ca="1" si="16"/>
-        <v>3.9828820699000999E-4</v>
+        <v>3.9833356011902946E-4</v>
       </c>
       <c r="AU32">
         <f t="shared" ca="1" si="16"/>
-        <v>2.7706473112578398E-4</v>
+        <v>2.7709813443458047E-4</v>
       </c>
       <c r="AV32">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4228395128489232E-4</v>
+        <v>1.4230124536790693E-4</v>
       </c>
       <c r="AW32">
         <v>0</v>
@@ -33318,179 +33315,179 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3232083943001458E-6</v>
+        <v>1.324739137472047E-6</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="16"/>
-        <v>2.5901819942951502E-6</v>
+        <v>2.5929619939463697E-6</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="16"/>
-        <v>3.6832797343234699E-6</v>
+        <v>3.6868408921398033E-6</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.3870372046588921E-6</v>
+        <v>4.3907407239649719E-6</v>
       </c>
       <c r="I33">
         <f ca="1">0.25*(J33+I32+H33+I34)</f>
-        <v>4.6898634215570444E-6</v>
+        <v>4.6931567924831622E-6</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="16"/>
-        <v>7.5358754788644915E-6</v>
+        <v>7.5400685879728594E-6</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3843502137377803E-5</v>
+        <v>1.3849670828562706E-5</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="16"/>
-        <v>2.686608832610901E-5</v>
+        <v>2.6875723033228991E-5</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.4883000657746043E-5</v>
+        <v>5.489878347638967E-5</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2062097846618846E-4</v>
+        <v>1.2064871294168503E-4</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9457616930134237E-4</v>
+        <v>2.9463083901507117E-4</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.58990453434807E-4</v>
+        <v>4.590625583157312E-4</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.7583410811262183E-4</v>
+        <v>5.7590947311907126E-4</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.9860315593967118E-4</v>
+        <v>5.9866734835734763E-4</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.0448246170246261E-4</v>
+        <v>5.0452599445521438E-4</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2480009542723019E-4</v>
+        <v>7.2484268853854818E-4</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2993074589034946E-3</v>
+        <v>1.2993597205329512E-3</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="16"/>
-        <v>2.5405187857951345E-3</v>
+        <v>2.5405910619701378E-3</v>
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3113433564880271E-3</v>
+        <v>5.3114515972694345E-3</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2093963243054211E-2</v>
+        <v>1.209414037625179E-2</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="16"/>
-        <v>3.0867178486658126E-2</v>
+        <v>3.0867508779237003E-2</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.5293239992946238E-2</v>
+        <v>4.5293653820338765E-2</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.0102386349122049E-2</v>
+        <v>5.0102791735912783E-2</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.0670622052630251E-2</v>
+        <v>4.0670936595446981E-2</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5873092011109299E-2</v>
+        <v>1.5873270524633078E-2</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="16"/>
-        <v>7.4418850563651284E-3</v>
+        <v>7.4420206915024227E-3</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.6681712720136569E-3</v>
+        <v>4.6683035816427257E-3</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.6681032964461357E-3</v>
+        <v>4.6682588512266584E-3</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="16"/>
-        <v>7.4416643999023506E-3</v>
+        <v>7.441874131372931E-3</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5872652019510793E-2</v>
+        <v>1.5872972693532578E-2</v>
       </c>
       <c r="AI33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.0669773339091192E-2</v>
+        <v>4.0670345720391396E-2</v>
       </c>
       <c r="AJ33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.0101341223498082E-2</v>
+        <v>5.0102033763564757E-2</v>
       </c>
       <c r="AK33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.5292207671985468E-2</v>
+        <v>4.5292857606423792E-2</v>
       </c>
       <c r="AL33">
         <f t="shared" ca="1" si="16"/>
-        <v>3.0866288895415282E-2</v>
+        <v>3.0866761594188843E-2</v>
       </c>
       <c r="AM33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2093216961815031E-2</v>
+        <v>1.2093448617508169E-2</v>
       </c>
       <c r="AN33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.310274369481895E-3</v>
+        <v>5.3104047912128699E-3</v>
       </c>
       <c r="AO33">
         <f t="shared" ca="1" si="16"/>
-        <v>2.5386183117624547E-3</v>
+        <v>2.53869902612343E-3</v>
       </c>
       <c r="AP33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2956605388543593E-3</v>
+        <v>1.2957148178264844E-3</v>
       </c>
       <c r="AQ33">
         <f t="shared" ca="1" si="16"/>
-        <v>7.1742464284664867E-4</v>
+        <v>7.1746560627833366E-4</v>
       </c>
       <c r="AR33">
         <f t="shared" ca="1" si="16"/>
-        <v>4.8850347172512949E-4</v>
+        <v>4.88541381581232E-4</v>
       </c>
       <c r="AS33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.6032018619666453E-4</v>
+        <v>5.6036911567316616E-4</v>
       </c>
       <c r="AT33">
         <f t="shared" ca="1" si="16"/>
-        <v>5.1483796130841826E-4</v>
+        <v>5.1488688247569537E-4</v>
       </c>
       <c r="AU33">
         <f t="shared" ca="1" si="16"/>
-        <v>3.7775529319773228E-4</v>
+        <v>3.7779316112876383E-4</v>
       </c>
       <c r="AV33">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9692477898045383E-4</v>
+        <v>1.9694475243233945E-4</v>
       </c>
       <c r="AW33">
         <v>0</v>
@@ -33505,19 +33502,19 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="16"/>
-        <v>1.6579443002557068E-6</v>
+        <v>1.6596994002329979E-6</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="16"/>
-        <v>3.2467540181387332E-6</v>
+        <v>3.249914162752213E-6</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="16"/>
-        <v>4.5199932699410824E-6</v>
+        <v>4.5239038844116242E-6</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="16"/>
-        <v>4.5671086416426627E-6</v>
+        <v>4.5705220305528713E-6</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -33539,19 +33536,19 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="16"/>
-        <v>3.6372245600673804E-4</v>
+        <v>3.6377728400082733E-4</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="16"/>
-        <v>6.1999983309020314E-4</v>
+        <v>6.2007894856847814E-4</v>
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9806857774430777E-4</v>
+        <v>7.9815038745039194E-4</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="16"/>
-        <v>7.6959586796650171E-4</v>
+        <v>7.6965660302340234E-4</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -33573,19 +33570,19 @@
       </c>
       <c r="Y34">
         <f t="shared" ca="1" si="16"/>
-        <v>4.486838276727223E-2</v>
+        <v>4.4868706695729225E-2</v>
       </c>
       <c r="Z34">
         <f t="shared" ca="1" si="16"/>
-        <v>7.1758437490101218E-2</v>
+        <v>7.175888453276541E-2</v>
       </c>
       <c r="AA34">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4016151686951618E-2</v>
+        <v>8.4016587709923402E-2</v>
       </c>
       <c r="AB34">
         <f t="shared" ca="1" si="16"/>
-        <v>7.1248133531243318E-2</v>
+        <v>7.12484346145206E-2</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -33607,19 +33604,19 @@
       </c>
       <c r="AI34">
         <f t="shared" ca="1" si="16"/>
-        <v>7.124727339998882E-2</v>
+        <v>7.1247826890589908E-2</v>
       </c>
       <c r="AJ34">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4014993695209012E-2</v>
+        <v>8.4015735276128226E-2</v>
       </c>
       <c r="AK34">
         <f t="shared" ca="1" si="16"/>
-        <v>7.1757296662244577E-2</v>
+        <v>7.1757992716078273E-2</v>
       </c>
       <c r="AL34">
         <f t="shared" ca="1" si="16"/>
-        <v>4.4867534352381777E-2</v>
+        <v>4.4867991947882963E-2</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -33641,19 +33638,19 @@
       </c>
       <c r="AS34">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2590399722930648E-4</v>
+        <v>7.2594905276596449E-4</v>
       </c>
       <c r="AT34">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2301826175511668E-4</v>
+        <v>7.230702688487482E-4</v>
       </c>
       <c r="AU34">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2221422821664232E-4</v>
+        <v>5.22255543057868E-4</v>
       </c>
       <c r="AV34">
         <f t="shared" ca="1" si="16"/>
-        <v>2.6766721385993499E-4</v>
+        <v>2.6768913343807991E-4</v>
       </c>
       <c r="AW34">
         <v>0</v>
@@ -33668,179 +33665,179 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="16"/>
-        <v>2.063320870417926E-6</v>
+        <v>2.0653064464971713E-6</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="16"/>
-        <v>4.2211275450371064E-6</v>
+        <v>4.2247975365681365E-6</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="16"/>
-        <v>6.5852965088722821E-6</v>
+        <v>6.5902026853890036E-6</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="16"/>
-        <v>9.3630826758773984E-6</v>
+        <v>9.3686933359913325E-6</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3339313272230448E-5</v>
+        <v>1.3345320313223913E-5</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2882304352463562E-5</v>
+        <v>2.2890327280667109E-5</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="16"/>
-        <v>4.1276668680523268E-5</v>
+        <v>4.1288295589171089E-5</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="16"/>
-        <v>7.5680121355811353E-5</v>
+        <v>7.5697498841911684E-5</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4055664488933726E-4</v>
+        <v>1.4058313045208059E-4</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="16"/>
-        <v>2.6775999335374692E-4</v>
+        <v>2.67801708855367E-4</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="16"/>
-        <v>5.4036086658344187E-4</v>
+        <v>5.4043176542337384E-4</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5927210650727946E-4</v>
+        <v>8.5936275023882442E-4</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2268940806981258E-3</v>
+        <v>1.2269902723812966E-3</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="16"/>
-        <v>1.6817396505799695E-3</v>
+        <v>1.681827497750495E-3</v>
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3660102131649948E-3</v>
+        <v>2.3660818493450582E-3</v>
       </c>
       <c r="T35">
         <f t="shared" ca="1" si="16"/>
-        <v>4.0049700287253616E-3</v>
+        <v>4.0050459828960706E-3</v>
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="16"/>
-        <v>7.1168422089792809E-3</v>
+        <v>7.1169359359299651E-3</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2767853519294936E-2</v>
+        <v>1.2767978846426348E-2</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2906036246788192E-2</v>
+        <v>2.2906211970224341E-2</v>
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="16"/>
-        <v>4.1299324607028121E-2</v>
+        <v>4.1299583216288592E-2</v>
       </c>
       <c r="Y35">
         <f t="shared" ca="1" si="16"/>
-        <v>7.6848198534432172E-2</v>
+        <v>7.6848614176004942E-2</v>
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.11285628408294596</v>
+        <v>0.11285678631002867</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.14295591150158163</v>
+        <v>0.14295640645111146</v>
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.16030589393125755</v>
+        <v>0.16030629870236734</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.15980198255569233</v>
+        <v>0.15980225460821146</v>
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.16842798057575234</v>
+        <v>0.16842820886689644</v>
       </c>
       <c r="AE35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.17412178775411044</v>
+        <v>0.17412201711756617</v>
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.17412168063560224</v>
+        <v>0.17412194497584493</v>
       </c>
       <c r="AG35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.16842764429983706</v>
+        <v>0.16842798002498172</v>
       </c>
       <c r="AH35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.15980135856966574</v>
+        <v>0.15980182093197981</v>
       </c>
       <c r="AI35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.16030481548200093</v>
+        <v>0.16030552548835497</v>
       </c>
       <c r="AJ35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.1429545758886481</v>
+        <v>0.14295540094863965</v>
       </c>
       <c r="AK35">
         <f t="shared" ca="1" si="16"/>
-        <v>0.11285486576891041</v>
+        <v>0.11285563957921736</v>
       </c>
       <c r="AL35">
         <f t="shared" ca="1" si="16"/>
-        <v>7.6846748949651308E-2</v>
+        <v>7.6847333909950827E-2</v>
       </c>
       <c r="AM35">
         <f t="shared" ca="1" si="16"/>
-        <v>4.1297684969864711E-2</v>
+        <v>4.1298017093550202E-2</v>
       </c>
       <c r="AN35">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2903447720929844E-2</v>
+        <v>2.2903654686119934E-2</v>
       </c>
       <c r="AO35">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2763275661913001E-2</v>
+        <v>1.2763411535030602E-2</v>
       </c>
       <c r="AP35">
         <f t="shared" ca="1" si="16"/>
-        <v>7.1084586889671618E-3</v>
+        <v>7.1085524413447704E-3</v>
       </c>
       <c r="AQ35">
         <f t="shared" ca="1" si="16"/>
-        <v>3.9893279569804662E-3</v>
+        <v>3.9893978228444718E-3</v>
       </c>
       <c r="AR35">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3359626049538236E-3</v>
+        <v>2.33602221947241E-3</v>
       </c>
       <c r="AS35">
         <f t="shared" ca="1" si="16"/>
-        <v>1.6203165426874806E-3</v>
+        <v>1.6203808493142654E-3</v>
       </c>
       <c r="AT35">
         <f t="shared" ca="1" si="16"/>
-        <v>1.1291507322808043E-3</v>
+        <v>1.1292104745033358E-3</v>
       </c>
       <c r="AU35">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2043853026714237E-4</v>
+        <v>7.2048341043065252E-4</v>
       </c>
       <c r="AV35">
         <f t="shared" ca="1" si="16"/>
-        <v>3.515376855510773E-4</v>
+        <v>3.5156106926724896E-4</v>
       </c>
       <c r="AW35">
         <v>0</v>
@@ -33855,179 +33852,179 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3759137450771094E-6</v>
+        <v>2.3780324595739822E-6</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="16"/>
-        <v>4.9917712879024924E-6</v>
+        <v>4.995762896554227E-6</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2403246152038179E-6</v>
+        <v>8.2459156045125925E-6</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2964555912045277E-5</v>
+        <v>1.2971627015760542E-5</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1117040421298647E-5</v>
+        <v>2.112599957209197E-5</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="16"/>
-        <v>3.6920599752430186E-5</v>
+        <v>3.6932942307057956E-5</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="16"/>
-        <v>6.655515461487009E-5</v>
+        <v>6.6573048748814624E-5</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2090362283339779E-4</v>
+        <v>1.2093007784001366E-4</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1881169738031611E-4</v>
+        <v>2.1885084530903418E-4</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="16"/>
-        <v>3.9016253749867621E-4</v>
+        <v>3.9021962418134802E-4</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="16"/>
-        <v>6.7074241548153275E-4</v>
+        <v>6.708220780843213E-4</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0498945882346229E-3</v>
+        <v>1.0499916114555361E-3</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5685570462852228E-3</v>
+        <v>1.5686617706032913E-3</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3645146076383206E-3</v>
+        <v>2.3646188079997016E-3</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="16"/>
-        <v>3.777388855582757E-3</v>
+        <v>3.7774919148978016E-3</v>
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="16"/>
-        <v>6.5370953902792487E-3</v>
+        <v>6.5372101827657798E-3</v>
       </c>
       <c r="U36">
         <f t="shared" ref="U36:AV43" ca="1" si="17">0.25*(V36+U35+T36+U37)</f>
-        <v>1.1694632716553976E-2</v>
+        <v>1.1694775292518051E-2</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="17"/>
-        <v>2.1048655040317377E-2</v>
+        <v>2.1048844070526554E-2</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="17"/>
-        <v>3.7557136279294127E-2</v>
+        <v>3.7557394113632216E-2</v>
       </c>
       <c r="X36">
         <f t="shared" ca="1" si="17"/>
-        <v>6.5443315718692704E-2</v>
+        <v>6.5443667505768022E-2</v>
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.10836911990739949</v>
+        <v>0.10836958247983966</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.1598629257047337</v>
+        <v>0.15986345418346609</v>
       </c>
       <c r="AA36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21464562272753418</v>
+        <v>0.21464614728580855</v>
       </c>
       <c r="AB36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.26721779065380857</v>
+        <v>0.26721825214875461</v>
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31047425756981301</v>
+        <v>0.31047463735286396</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.33978834187662799</v>
+        <v>0.33978868176115351</v>
       </c>
       <c r="AE36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.35393769442826839</v>
+        <v>0.35393804088274838</v>
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.35393753675117501</v>
+        <v>0.35393793394990092</v>
       </c>
       <c r="AG36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.33978785908016451</v>
+        <v>0.33978835077096936</v>
       </c>
       <c r="AH36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.3104734253199386</v>
+        <v>0.31047405387748195</v>
       </c>
       <c r="AI36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.26721659744345233</v>
+        <v>0.26721738526958516</v>
       </c>
       <c r="AJ36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21464417932006266</v>
+        <v>0.2146450399396026</v>
       </c>
       <c r="AK36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.15986131053024399</v>
+        <v>0.15986211723327398</v>
       </c>
       <c r="AL36">
         <f t="shared" ca="1" si="17"/>
-        <v>0.10836724094064212</v>
+        <v>0.10836788873741873</v>
       </c>
       <c r="AM36">
         <f t="shared" ca="1" si="17"/>
-        <v>6.5440764726294509E-2</v>
+        <v>6.5441215091745095E-2</v>
       </c>
       <c r="AN36">
         <f t="shared" ca="1" si="17"/>
-        <v>3.7552977931325282E-2</v>
+        <v>3.7553280348231993E-2</v>
       </c>
       <c r="AO36">
         <f t="shared" ca="1" si="17"/>
-        <v>2.1041296467553573E-2</v>
+        <v>2.1041500290202433E-2</v>
       </c>
       <c r="AP36">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1681302332472415E-2</v>
+        <v>1.1681443982972462E-2</v>
       </c>
       <c r="AQ36">
         <f t="shared" ca="1" si="17"/>
-        <v>6.5129457905865155E-3</v>
+        <v>6.5130505086086685E-3</v>
       </c>
       <c r="AR36">
         <f t="shared" ca="1" si="17"/>
-        <v>3.734256046499579E-3</v>
+        <v>3.7343410026564805E-3</v>
       </c>
       <c r="AS36">
         <f t="shared" ca="1" si="17"/>
-        <v>2.2902941716953602E-3</v>
+        <v>2.2903695445336538E-3</v>
       </c>
       <c r="AT36">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4528660336918763E-3</v>
+        <v>1.4529298079388366E-3</v>
       </c>
       <c r="AU36">
         <f t="shared" ca="1" si="17"/>
-        <v>8.7887478272415565E-4</v>
+        <v>8.7892091223120143E-4</v>
       </c>
       <c r="AV36">
         <f t="shared" ca="1" si="17"/>
-        <v>4.1805294010700583E-4</v>
+        <v>4.1807662484418461E-4</v>
       </c>
       <c r="AW36">
         <v>0</v>
@@ -34042,179 +34039,179 @@
       </c>
       <c r="E37">
         <f t="shared" ref="E37:T43" ca="1" si="18">0.25*(F37+E36+D37+E38)</f>
-        <v>2.4503517869067802E-6</v>
+        <v>2.4524227564567976E-6</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="18"/>
-        <v>5.1325354107608447E-6</v>
+        <v>5.1364288251425272E-6</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="18"/>
-        <v>8.4234192720056998E-6</v>
+        <v>8.4288542636709489E-6</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3142554036890193E-5</v>
+        <v>1.3149395250120936E-5</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="18"/>
-        <v>2.125009479928334E-5</v>
+        <v>2.1258718387362424E-5</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="18"/>
-        <v>3.7137052651909573E-5</v>
+        <v>3.7148899539179836E-5</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="18"/>
-        <v>6.7133229095403735E-5</v>
+        <v>6.7150380982435154E-5</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2258758331367569E-4</v>
+        <v>1.2261292670345635E-4</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="18"/>
-        <v>2.2365353541125286E-4</v>
+        <v>2.236910409033918E-4</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="18"/>
-        <v>4.033781809410914E-4</v>
+        <v>4.034329103011429E-4</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="18"/>
-        <v>7.026062594390753E-4</v>
+        <v>7.0268271747308663E-4</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1010692928494379E-3</v>
+        <v>1.101162383504716E-3</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="18"/>
-        <v>1.632989889343864E-3</v>
+        <v>1.6330902129617192E-3</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4304377135865238E-3</v>
+        <v>2.4305372505980228E-3</v>
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="18"/>
-        <v>3.8420038957872938E-3</v>
+        <v>3.842101957627889E-3</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="18"/>
-        <v>6.6714716930374209E-3</v>
+        <v>6.6715806192006993E-3</v>
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2076044070836803E-2</v>
+        <v>1.207617915835479E-2</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="17"/>
-        <v>2.2175140731190864E-2</v>
+        <v>2.2175319724963428E-2</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="17"/>
-        <v>4.0830733690077878E-2</v>
+        <v>4.0830977836818154E-2</v>
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="17"/>
-        <v>7.4547943622276971E-2</v>
+        <v>7.4548276898398588E-2</v>
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13132235785010293</v>
+        <v>0.13132279644205017</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.20358101399478484</v>
+        <v>0.20358151513166783</v>
       </c>
       <c r="AA37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.28854617940820826</v>
+        <v>0.28854667658582106</v>
       </c>
       <c r="AB37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.38344565861154406</v>
+        <v>0.38344609551609166</v>
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.47508914731747587</v>
+        <v>0.47508950616656298</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5263136575805003</v>
+        <v>0.52631397817932069</v>
       </c>
       <c r="AE37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.54790335384333833</v>
+        <v>0.54790368022733249</v>
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.54790320377808488</v>
+        <v>0.54790357770046483</v>
       </c>
       <c r="AG37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.52631319729294646</v>
+        <v>0.526313660076135</v>
       </c>
       <c r="AH37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.47508835088639401</v>
+        <v>0.47508894261293194</v>
       </c>
       <c r="AI37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.383444509684844</v>
+        <v>0.38344525170678789</v>
       </c>
       <c r="AJ37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.28854477852104532</v>
+        <v>0.28854558924795054</v>
       </c>
       <c r="AK37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.20357943054041788</v>
+        <v>0.20358019042785741</v>
       </c>
       <c r="AL37">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13132049695544903</v>
+        <v>0.13132110697800314</v>
       </c>
       <c r="AM37">
         <f t="shared" ca="1" si="17"/>
-        <v>7.4545399830244663E-2</v>
+        <v>7.4545823687251475E-2</v>
       </c>
       <c r="AN37">
         <f t="shared" ca="1" si="17"/>
-        <v>4.0826567352132873E-2</v>
+        <v>4.0826851858044702E-2</v>
       </c>
       <c r="AO37">
         <f t="shared" ca="1" si="17"/>
-        <v>2.2167742227045057E-2</v>
+        <v>2.2167933943733713E-2</v>
       </c>
       <c r="AP37">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2062588475604935E-2</v>
+        <v>1.2062721715803854E-2</v>
       </c>
       <c r="AQ37">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6469585242709987E-3</v>
+        <v>6.647057051233478E-3</v>
       </c>
       <c r="AR37">
         <f t="shared" ca="1" si="17"/>
-        <v>3.7978738041488103E-3</v>
+        <v>3.797953786782696E-3</v>
       </c>
       <c r="AS37">
         <f t="shared" ca="1" si="17"/>
-        <v>2.353783311161043E-3</v>
+        <v>2.3538543417453003E-3</v>
       </c>
       <c r="AT37">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5131801012874058E-3</v>
+        <v>1.5132402407323213E-3</v>
       </c>
       <c r="AU37">
         <f t="shared" ca="1" si="17"/>
-        <v>9.241641674859549E-4</v>
+        <v>9.2420768131045209E-4</v>
       </c>
       <c r="AV37">
         <f t="shared" ca="1" si="17"/>
-        <v>4.4180678747902306E-4</v>
+        <v>4.4182913144077344E-4</v>
       </c>
       <c r="AW37">
         <v>0</v>
@@ -34229,179 +34226,179 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="18"/>
-        <v>2.2946599694107036E-6</v>
+        <v>2.2965208216675026E-6</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="18"/>
-        <v>4.6672341238345064E-6</v>
+        <v>4.6706550547530629E-6</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1816740778615283E-6</v>
+        <v>7.1862073612962894E-6</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="18"/>
-        <v>9.9363054340514345E-6</v>
+        <v>9.9414177595927392E-6</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3608995881661248E-5</v>
+        <v>1.3614359128463111E-5</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="18"/>
-        <v>2.3251760706317282E-5</v>
+        <v>2.3258855011068504E-5</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="18"/>
-        <v>4.2264158221070991E-5</v>
+        <v>4.2274394269549113E-5</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="18"/>
-        <v>7.8676389449901693E-5</v>
+        <v>7.8691660355056142E-5</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4986108565679594E-4</v>
+        <v>1.4988436516304897E-4</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="18"/>
-        <v>2.9712594433519318E-4</v>
+        <v>2.9716270375554398E-4</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="18"/>
-        <v>6.3528427657634739E-4</v>
+        <v>6.3534708005263084E-4</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="18"/>
-        <v>1.018843556559244E-3</v>
+        <v>1.018923787107686E-3</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4319541203559529E-3</v>
+        <v>1.4320389243485927E-3</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8822984632268999E-3</v>
+        <v>1.8823753098274716E-3</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4887724489484641E-3</v>
+        <v>2.4888342254515633E-3</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="18"/>
-        <v>4.2308084603181629E-3</v>
+        <v>4.2308733616580651E-3</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="17"/>
-        <v>7.763015680560318E-3</v>
+        <v>7.7630953904255515E-3</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4745245004604699E-2</v>
+        <v>1.4745351387105345E-2</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="17"/>
-        <v>2.9042872545495622E-2</v>
+        <v>2.9043021710286721E-2</v>
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="17"/>
-        <v>6.0595583765238999E-2</v>
+        <v>6.0595803671608356E-2</v>
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13879163562336286</v>
+        <v>0.13879199028404463</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.23459289818269077</v>
+        <v>0.23459332683590883</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.35251270582218885</v>
+        <v>0.35251312773011845</v>
       </c>
       <c r="AB38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.50292974967736459</v>
+        <v>0.50293009366747254</v>
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.68012319836538282</v>
+        <v>0.6801234279827042</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.74247396026347845</v>
+        <v>0.74247415187314525</v>
       </c>
       <c r="AE38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.7634590492533575</v>
+        <v>0.76345924100833029</v>
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.76345895693509946</v>
+        <v>0.76345917744856595</v>
       </c>
       <c r="AG38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.74247366887722799</v>
+        <v>0.7424739487692118</v>
       </c>
       <c r="AH38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.68012265122447091</v>
+        <v>0.68012303698936982</v>
       </c>
       <c r="AI38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.50292878519467421</v>
+        <v>0.50292937874816213</v>
       </c>
       <c r="AJ38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.35251148329955162</v>
+        <v>0.3525121733328046</v>
       </c>
       <c r="AK38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.23459155992376593</v>
+        <v>0.2345922069666011</v>
       </c>
       <c r="AL38">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13879022414337755</v>
+        <v>0.13879071288437553</v>
       </c>
       <c r="AM38">
         <f t="shared" ca="1" si="17"/>
-        <v>6.059395949548245E-2</v>
+        <v>6.0594236374457759E-2</v>
       </c>
       <c r="AN38">
         <f t="shared" ca="1" si="17"/>
-        <v>2.9040272081131472E-2</v>
+        <v>2.9040444396592785E-2</v>
       </c>
       <c r="AO38">
         <f t="shared" ca="1" si="17"/>
-        <v>1.474059956876159E-2</v>
+        <v>1.4740712632474895E-2</v>
       </c>
       <c r="AP38">
         <f t="shared" ca="1" si="17"/>
-        <v>7.754410238275819E-3</v>
+        <v>7.7544882589438268E-3</v>
       </c>
       <c r="AQ38">
         <f t="shared" ca="1" si="17"/>
-        <v>4.2144724872457979E-3</v>
+        <v>4.2145306795208295E-3</v>
       </c>
       <c r="AR38">
         <f t="shared" ca="1" si="17"/>
-        <v>2.4565379104329365E-3</v>
+        <v>2.4565876687873281E-3</v>
       </c>
       <c r="AS38">
         <f t="shared" ca="1" si="17"/>
-        <v>1.8138234451803201E-3</v>
+        <v>1.8138773257367824E-3</v>
       </c>
       <c r="AT38">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3219383229531208E-3</v>
+        <v>1.3219884644074496E-3</v>
       </c>
       <c r="AU38">
         <f t="shared" ca="1" si="17"/>
-        <v>8.6281514303793519E-4</v>
+        <v>8.6285283471580938E-4</v>
       </c>
       <c r="AV38">
         <f t="shared" ca="1" si="17"/>
-        <v>4.2501663316563972E-4</v>
+        <v>4.2503627416337001E-4</v>
       </c>
       <c r="AW38">
         <v>0</v>
@@ -34416,19 +34413,19 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0625386395647743E-6</v>
+        <v>2.0641285154801564E-6</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="18"/>
-        <v>4.0622651967534303E-6</v>
+        <v>4.0651117333753122E-6</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="18"/>
-        <v>5.7023199784258465E-6</v>
+        <v>5.7058170220280247E-6</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="18"/>
-        <v>5.8145379281281522E-6</v>
+        <v>5.8175638542751811E-6</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -34450,19 +34447,19 @@
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="18"/>
-        <v>5.2260092636797573E-4</v>
+        <v>5.2264609864707086E-4</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="18"/>
-        <v>9.0711395863895801E-4</v>
+        <v>9.0717892368118408E-4</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1937302766968803E-3</v>
+        <v>1.1937971713639655E-3</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1780651425080124E-3</v>
+        <v>1.1781145538331038E-3</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -34484,19 +34481,19 @@
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="17"/>
-        <v>0.12865592622828143</v>
+        <v>0.12865617604915547</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="17"/>
-        <v>0.24348648997797262</v>
+        <v>0.2434868343083581</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="17"/>
-        <v>0.38398222032713875</v>
+        <v>0.38398255565898326</v>
       </c>
       <c r="AB39">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5956375883644669</v>
+        <v>0.59563781949971817</v>
       </c>
       <c r="AC39" s="1">
         <v>1</v>
@@ -34518,19 +34515,19 @@
       </c>
       <c r="AI39">
         <f t="shared" ca="1" si="17"/>
-        <v>0.59563686801536786</v>
+        <v>0.59563727968396663</v>
       </c>
       <c r="AJ39">
         <f t="shared" ca="1" si="17"/>
-        <v>0.38398121363501914</v>
+        <v>0.383981764967607</v>
       </c>
       <c r="AK39">
         <f t="shared" ca="1" si="17"/>
-        <v>0.24348544094112523</v>
+        <v>0.24348595823865371</v>
       </c>
       <c r="AL39">
         <f t="shared" ca="1" si="17"/>
-        <v>0.12865508818388816</v>
+        <v>0.12865542815569991</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -34552,19 +34549,19 @@
       </c>
       <c r="AS39">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1230623996272911E-3</v>
+        <v>1.1230961364679713E-3</v>
       </c>
       <c r="AT39">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0979603284721094E-3</v>
+        <v>1.09799927266553E-3</v>
       </c>
       <c r="AU39">
         <f t="shared" ca="1" si="17"/>
-        <v>7.8015842416505235E-4</v>
+        <v>7.8018935725743981E-4</v>
       </c>
       <c r="AV39">
         <f t="shared" ca="1" si="17"/>
-        <v>3.954501097350574E-4</v>
+        <v>3.9546651661071333E-4</v>
       </c>
       <c r="AW39">
         <v>0</v>
@@ -34579,179 +34576,179 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8944742803989605E-6</v>
+        <v>1.8958196756201179E-6</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="18"/>
-        <v>3.818737344955927E-6</v>
+        <v>3.8211692062421932E-6</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="18"/>
-        <v>5.7526432740852901E-6</v>
+        <v>5.755747730490903E-6</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="18"/>
-        <v>7.6205039804913991E-6</v>
+        <v>7.6237353850896426E-6</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="18"/>
-        <v>9.7540158702341177E-6</v>
+        <v>9.7569168748448693E-6</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6591500517458948E-5</v>
+        <v>1.6595137475681487E-5</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="18"/>
-        <v>3.0583764375923934E-5</v>
+        <v>3.0588986142485568E-5</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="18"/>
-        <v>5.8326309871129736E-5</v>
+        <v>5.8334261310266971E-5</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1523195069971876E-4</v>
+        <v>1.1524465934692986E-4</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4052846358392607E-4</v>
+        <v>2.405502787662309E-4</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="18"/>
-        <v>5.4803930961810758E-4</v>
+        <v>5.4808141157918779E-4</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="18"/>
-        <v>8.9331973491624825E-4</v>
+        <v>8.9337481552593189E-4</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2578218271401302E-3</v>
+        <v>1.2578791355815015E-3</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6362473998744183E-3</v>
+        <v>1.6362961415084711E-3</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="18"/>
-        <v>2.1160135755125837E-3</v>
+        <v>2.1160467889317124E-3</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="18"/>
-        <v>3.6195992486503371E-3</v>
+        <v>3.6196314360019055E-3</v>
       </c>
       <c r="U40">
         <f t="shared" ref="U40:X43" ca="1" si="19">0.25*(V40+U39+T40+U41)</f>
-        <v>6.7214383414766123E-3</v>
+        <v>6.7214771600775328E-3</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2971773461729817E-2</v>
+        <v>1.2971826193720755E-2</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="19"/>
-        <v>2.6113116708241423E-2</v>
+        <v>2.6113194403718488E-2</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="19"/>
-        <v>5.6033751645568758E-2</v>
+        <v>5.6033876974007885E-2</v>
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13234576895240624</v>
+        <v>0.13234599981624803</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.22671512086113776</v>
+        <v>0.22671540890001307</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.34429226650728617</v>
+        <v>0.34429254812861509</v>
       </c>
       <c r="AB40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4956384557327802</v>
+        <v>0.49563867423654162</v>
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.67453450308656704</v>
+        <v>0.67453462763325722</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.73837187280236249</v>
+        <v>0.73837196721472254</v>
       </c>
       <c r="AE40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.76016034353150563</v>
+        <v>0.76016043478614226</v>
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.76016029329146417</v>
+        <v>0.76016039929971946</v>
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.73837170783469974</v>
+        <v>0.73837184915917042</v>
       </c>
       <c r="AH40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.67453416677705569</v>
+        <v>0.67453438084954165</v>
       </c>
       <c r="AI40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4956377871323111</v>
+        <v>0.49563816650915393</v>
       </c>
       <c r="AJ40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.34429139124831259</v>
+        <v>0.34429184927635348</v>
       </c>
       <c r="AK40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.22671416159630217</v>
+        <v>0.22671459118838541</v>
       </c>
       <c r="AL40">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13234479313886297</v>
+        <v>0.13234510581998962</v>
       </c>
       <c r="AM40">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6032717595130475E-2</v>
+        <v>5.6032871523662237E-2</v>
       </c>
       <c r="AN40">
         <f t="shared" ca="1" si="17"/>
-        <v>2.6111462162451624E-2</v>
+        <v>2.611154925461872E-2</v>
       </c>
       <c r="AO40">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2968756362817142E-2</v>
+        <v>1.2968810532441567E-2</v>
       </c>
       <c r="AP40">
         <f t="shared" ca="1" si="17"/>
-        <v>6.7156720453614739E-3</v>
+        <v>6.7157086391331153E-3</v>
       </c>
       <c r="AQ40">
         <f t="shared" ca="1" si="17"/>
-        <v>3.6081338167206854E-3</v>
+        <v>3.6081615080690993E-3</v>
       </c>
       <c r="AR40">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0918505274817121E-3</v>
+        <v>2.0918761157670092E-3</v>
       </c>
       <c r="AS40">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5804899339027854E-3</v>
+        <v>1.5805227493031052E-3</v>
       </c>
       <c r="AT40">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1667035452257776E-3</v>
+        <v>1.1667362652556354E-3</v>
       </c>
       <c r="AU40">
         <f t="shared" ca="1" si="17"/>
-        <v>7.6442211771815972E-4</v>
+        <v>7.6444740892131025E-4</v>
       </c>
       <c r="AV40">
         <f t="shared" ca="1" si="17"/>
-        <v>3.766298573814741E-4</v>
+        <v>3.7664318481556923E-4</v>
       </c>
       <c r="AW40">
         <v>0</v>
@@ -34766,179 +34763,179 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6976727235947977E-6</v>
+        <v>1.6987686687724686E-6</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="18"/>
-        <v>3.5671068801459697E-6</v>
+        <v>3.569141044048566E-6</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="18"/>
-        <v>5.8708255374372227E-6</v>
+        <v>5.8735989121549929E-6</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="18"/>
-        <v>9.1627299912528296E-6</v>
+        <v>9.1660902068285588E-6</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4806428218055647E-5</v>
+        <v>1.4810472824806833E-5</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="18"/>
-        <v>2.6031532750493401E-5</v>
+        <v>2.6036961961059206E-5</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="18"/>
-        <v>4.7422166908996885E-5</v>
+        <v>4.742995439378729E-5</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="18"/>
-        <v>8.7497124705717669E-5</v>
+        <v>8.7508629539971615E-5</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6208531297084105E-4</v>
+        <v>1.6210250426276749E-4</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="18"/>
-        <v>2.9886398080579169E-4</v>
+        <v>2.9888961990902482E-4</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="18"/>
-        <v>5.357372522808827E-4</v>
+        <v>5.3577422739364497E-4</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="18"/>
-        <v>8.6033644588079936E-4</v>
+        <v>8.6038179527893636E-4</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3080208544533698E-3</v>
+        <v>1.3080691516195561E-3</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="18"/>
-        <v>1.9931146288372347E-3</v>
+        <v>1.993161021168215E-3</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="18"/>
-        <v>3.2082321544624308E-3</v>
+        <v>3.2082755648068944E-3</v>
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="18"/>
-        <v>5.640973026985914E-3</v>
+        <v>5.6410198041933063E-3</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0294416765024432E-2</v>
+        <v>1.0294474090249259E-2</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="19"/>
-        <v>1.90525893660215E-2</v>
+        <v>1.9052665386810441E-2</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="19"/>
-        <v>3.544701760746026E-2</v>
+        <v>3.5447122612687128E-2</v>
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="19"/>
-        <v>6.5676245542652986E-2</v>
+        <v>6.567639268002376E-2</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.11797843844101628</v>
+        <v>0.11797863952154036</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18673612789709096</v>
+        <v>0.18673636075786365</v>
       </c>
       <c r="AA41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.27083341737293298</v>
+        <v>0.27083364723970527</v>
       </c>
       <c r="AB41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.36808957158839944</v>
+        <v>0.36808976865213588</v>
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.46412776654591936</v>
+        <v>0.4641279206959098</v>
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.51879271967320273</v>
+        <v>0.51879285289720778</v>
       </c>
       <c r="AE41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.54210928849892115</v>
+        <v>0.54210942206948642</v>
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.54210922090356994</v>
+        <v>0.54210937387095015</v>
       </c>
       <c r="AG41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.51879250814898303</v>
+        <v>0.51879270002908884</v>
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.46412738526473496</v>
+        <v>0.46412763771695364</v>
       </c>
       <c r="AI41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.36808898833121473</v>
+        <v>0.36808931833598679</v>
       </c>
       <c r="AJ41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.27083267135373995</v>
+        <v>0.2708330382900741</v>
       </c>
       <c r="AK41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18673524257938706</v>
+        <v>0.1867355864730082</v>
       </c>
       <c r="AL41">
         <f t="shared" ca="1" si="17"/>
-        <v>0.11797734863946731</v>
+        <v>0.11797761985411918</v>
       </c>
       <c r="AM41">
         <f t="shared" ca="1" si="17"/>
-        <v>6.5674705436005912E-2</v>
+        <v>6.5674886082909889E-2</v>
       </c>
       <c r="AN41">
         <f t="shared" ca="1" si="17"/>
-        <v>3.5444432670442824E-2</v>
+        <v>3.5444550291595572E-2</v>
       </c>
       <c r="AO41">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9047929880439823E-2</v>
+        <v>1.904800778526345E-2</v>
       </c>
       <c r="AP41">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0285825485632359E-2</v>
+        <v>1.028587928116402E-2</v>
       </c>
       <c r="AQ41">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6250347897386817E-3</v>
+        <v>5.6250747779257306E-3</v>
       </c>
       <c r="AR41">
         <f t="shared" ca="1" si="17"/>
-        <v>3.1788005834636731E-3</v>
+        <v>3.178833815406846E-3</v>
       </c>
       <c r="AS41">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9403646652424362E-3</v>
+        <v>1.9403956051025017E-3</v>
       </c>
       <c r="AT41">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2239593849202193E-3</v>
+        <v>1.2239864227729896E-3</v>
       </c>
       <c r="AU41">
         <f t="shared" ca="1" si="17"/>
-        <v>7.3420779967962933E-4</v>
+        <v>7.3422767788761025E-4</v>
       </c>
       <c r="AV41">
         <f t="shared" ca="1" si="17"/>
-        <v>3.4665065537680279E-4</v>
+        <v>3.4666093385070579E-4</v>
       </c>
       <c r="AW41">
         <v>0</v>
@@ -34953,179 +34950,179 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3299544460728638E-6</v>
+        <v>1.3307424664330671E-6</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="18"/>
-        <v>2.8824778283303089E-6</v>
+        <v>2.8839747786391592E-6</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="18"/>
-        <v>5.0024914474218469E-6</v>
+        <v>5.0046303984347615E-6</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="18"/>
-        <v>8.3552586630940892E-6</v>
+        <v>8.3580541825044493E-6</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4280244632570378E-5</v>
+        <v>1.4283904843934553E-5</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="18"/>
-        <v>2.5310028599608996E-5</v>
+        <v>2.5315068764215653E-5</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="18"/>
-        <v>4.5582095372761627E-5</v>
+        <v>4.5589286520509338E-5</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="18"/>
-        <v>8.2163369759950908E-5</v>
+        <v>8.2173750717149348E-5</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4676096237551197E-4</v>
+        <v>1.4677583601024297E-4</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="18"/>
-        <v>2.5712313589032698E-4</v>
+        <v>2.5714388060965024E-4</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="18"/>
-        <v>4.3573232351197023E-4</v>
+        <v>4.357596865393156E-4</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="18"/>
-        <v>7.0429369179769719E-4</v>
+        <v>7.04326305230924E-4</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1208366897759627E-3</v>
+        <v>1.1208721034416543E-3</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="18"/>
-        <v>1.819983809547569E-3</v>
+        <v>1.8200201578248377E-3</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="18"/>
-        <v>3.0828548125552335E-3</v>
+        <v>3.0828924752460832E-3</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="18"/>
-        <v>5.4416765836764998E-3</v>
+        <v>5.4417191206376321E-3</v>
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="19"/>
-        <v>9.762708495567372E-3</v>
+        <v>9.762760941131151E-3</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7497206645892948E-2</v>
+        <v>1.7497274914350845E-2</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="19"/>
-        <v>3.0946197131501096E-2</v>
+        <v>3.0946287675594836E-2</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="19"/>
-        <v>5.324587988050665E-2</v>
+        <v>5.3245998391657869E-2</v>
       </c>
       <c r="Y42">
         <f t="shared" ca="1" si="17"/>
-        <v>8.7155736878011661E-2</v>
+        <v>8.7155884232614167E-2</v>
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13141766521523465</v>
+        <v>0.131417829649599</v>
       </c>
       <c r="AA42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18421582291916083</v>
+        <v>0.18421598661341446</v>
       </c>
       <c r="AB42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.24175874708632777</v>
+        <v>0.2417588953505786</v>
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.29509435916051541</v>
+        <v>0.29509448796559251</v>
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.33056203523229299</v>
+        <v>0.33056215375062925</v>
       </c>
       <c r="AE42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.34737496202987778</v>
+        <v>0.34737508330015293</v>
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.34737490455206599</v>
+        <v>0.34737504189291585</v>
       </c>
       <c r="AG42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.330561859626609</v>
+        <v>0.33056202544577395</v>
       </c>
       <c r="AH42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.29509405781297798</v>
+        <v>0.29509426143116968</v>
       </c>
       <c r="AI42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.24175831474485654</v>
+        <v>0.24175855591268491</v>
       </c>
       <c r="AJ42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18421526590853299</v>
+        <v>0.18421552260745672</v>
       </c>
       <c r="AK42">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13141696137419173</v>
+        <v>0.13141720178834143</v>
       </c>
       <c r="AL42">
         <f t="shared" ca="1" si="17"/>
-        <v>8.7154781105808835E-2</v>
+        <v>8.7154978863875757E-2</v>
       </c>
       <c r="AM42">
         <f t="shared" ca="1" si="17"/>
-        <v>5.3244411532263738E-2</v>
+        <v>5.3244556706443437E-2</v>
       </c>
       <c r="AN42">
         <f t="shared" ca="1" si="17"/>
-        <v>3.0943693658115411E-2</v>
+        <v>3.0943794881742166E-2</v>
       </c>
       <c r="AO42">
         <f t="shared" ca="1" si="17"/>
-        <v>1.7492746692840809E-2</v>
+        <v>1.749281644727298E-2</v>
       </c>
       <c r="AP42">
         <f t="shared" ca="1" si="17"/>
-        <v>9.754695237435787E-3</v>
+        <v>9.7547442293806318E-3</v>
       </c>
       <c r="AQ42">
         <f t="shared" ca="1" si="17"/>
-        <v>5.4274026497584367E-3</v>
+        <v>5.4274387873511692E-3</v>
       </c>
       <c r="AR42">
         <f t="shared" ca="1" si="17"/>
-        <v>3.0579724045624083E-3</v>
+        <v>3.0580010341826349E-3</v>
       </c>
       <c r="AS42">
         <f t="shared" ca="1" si="17"/>
-        <v>1.7782259334808671E-3</v>
+        <v>1.7782499575609858E-3</v>
       </c>
       <c r="AT42">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0545747658600667E-3</v>
+        <v>1.0545942611761968E-3</v>
       </c>
       <c r="AU42">
         <f t="shared" ca="1" si="17"/>
-        <v>6.0180712666791812E-4</v>
+        <v>6.0182090764794062E-4</v>
       </c>
       <c r="AV42">
         <f t="shared" ca="1" si="17"/>
-        <v>2.7576731683192875E-4</v>
+        <v>2.7577431609515879E-4</v>
       </c>
       <c r="AW42">
         <v>0</v>
@@ -35140,179 +35137,179 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="18"/>
-        <v>7.4024006201478102E-7</v>
+        <v>7.4065018282942957E-7</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6312437302452605E-6</v>
+        <v>1.632033387417307E-6</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="18"/>
-        <v>2.9026077606823657E-6</v>
+        <v>2.9037638660029511E-6</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="18"/>
-        <v>4.9771733901639227E-6</v>
+        <v>4.9787345998686807E-6</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="18"/>
-        <v>8.6514760335104168E-6</v>
+        <v>8.653580030050818E-6</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="18"/>
-        <v>1.5349393802181977E-5</v>
+        <v>1.5352316250928285E-5</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="18"/>
-        <v>2.7437366316710027E-5</v>
+        <v>2.7441515308389737E-5</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="18"/>
-        <v>4.8819828559846867E-5</v>
+        <v>4.882573477636844E-5</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="18"/>
-        <v>8.568118266250152E-5</v>
+        <v>8.5689456972000522E-5</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4714747373563894E-4</v>
+        <v>1.4715866470864483E-4</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4579010253119406E-4</v>
+        <v>2.4580438798282151E-4</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="18"/>
-        <v>4.0028596832497072E-4</v>
+        <v>4.0030280625217901E-4</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="18"/>
-        <v>6.5106598867134937E-4</v>
+        <v>6.5108447826366285E-4</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0831475915247042E-3</v>
+        <v>1.0831671635388022E-3</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8615473968668435E-3</v>
+        <v>1.8615684773241174E-3</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="18"/>
-        <v>3.2801951019070749E-3</v>
+        <v>3.2802193839220049E-3</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="19"/>
-        <v>5.8175662511434556E-3</v>
+        <v>5.817596229628276E-3</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0227374090262998E-2</v>
+        <v>1.0227412674322525E-2</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7594739954259458E-2</v>
+        <v>1.7594790026797084E-2</v>
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="19"/>
-        <v>2.9205409531645962E-2</v>
+        <v>2.9205473027214858E-2</v>
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="17"/>
-        <v>4.5981043431250437E-2</v>
+        <v>4.5981119597449598E-2</v>
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="17"/>
-        <v>6.7563054950072574E-2</v>
+        <v>6.7563138583226295E-2</v>
       </c>
       <c r="AA43">
         <f t="shared" ca="1" si="17"/>
-        <v>9.2853538847510145E-2</v>
+        <v>9.2853622531753555E-2</v>
       </c>
       <c r="AB43">
         <f t="shared" ca="1" si="17"/>
-        <v>0.11963530332527472</v>
+        <v>0.11963538112448942</v>
       </c>
       <c r="AC43">
         <f t="shared" ca="1" si="17"/>
-        <v>0.14392895080687784</v>
+        <v>0.14392902124460152</v>
       </c>
       <c r="AD43">
         <f t="shared" ca="1" si="17"/>
-        <v>0.16098616302019644</v>
+        <v>0.16098622969781393</v>
       </c>
       <c r="AE43">
         <f t="shared" ca="1" si="17"/>
-        <v>0.16945368914522663</v>
+        <v>0.16945375802235929</v>
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="17"/>
-        <v>0.16945365759161618</v>
+        <v>0.16945373505980033</v>
       </c>
       <c r="AG43">
         <f t="shared" ca="1" si="17"/>
-        <v>0.16098606755029476</v>
+        <v>0.16098615919079159</v>
       </c>
       <c r="AH43">
         <f t="shared" ca="1" si="17"/>
-        <v>0.1439287897269487</v>
+        <v>0.14392889867408812</v>
       </c>
       <c r="AI43">
         <f t="shared" ca="1" si="17"/>
-        <v>0.11963507544034027</v>
+        <v>0.11963519961796462</v>
       </c>
       <c r="AJ43">
         <f t="shared" ca="1" si="17"/>
-        <v>9.2853240997481878E-2</v>
+        <v>9.2853370526462808E-2</v>
       </c>
       <c r="AK43">
         <f t="shared" ca="1" si="17"/>
-        <v>6.7562663561224506E-2</v>
+        <v>6.7562784819198002E-2</v>
       </c>
       <c r="AL43">
         <f t="shared" ca="1" si="17"/>
-        <v>4.5980486189991912E-2</v>
+        <v>4.5980587874177567E-2</v>
       </c>
       <c r="AM43">
         <f t="shared" ca="1" si="17"/>
-        <v>2.9204526249976395E-2</v>
+        <v>2.9204603751971377E-2</v>
       </c>
       <c r="AN43">
         <f t="shared" ca="1" si="17"/>
-        <v>1.7593226108073141E-2</v>
+        <v>1.7593281901012427E-2</v>
       </c>
       <c r="AO43">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0224697776756213E-2</v>
+        <v>1.0224737046631417E-2</v>
       </c>
       <c r="AP43">
         <f t="shared" ca="1" si="17"/>
-        <v>5.8128277065001566E-3</v>
+        <v>5.8128555697258347E-3</v>
       </c>
       <c r="AQ43">
         <f t="shared" ca="1" si="17"/>
-        <v>3.2719247233016207E-3</v>
+        <v>3.2719452208129639E-3</v>
       </c>
       <c r="AR43">
         <f t="shared" ca="1" si="17"/>
-        <v>1.8474738956605651E-3</v>
+        <v>1.8474898008426768E-3</v>
       </c>
       <c r="AS43">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0600027700432885E-3</v>
+        <v>1.0600155891621465E-3</v>
       </c>
       <c r="AT43">
         <f t="shared" ca="1" si="17"/>
-        <v>6.143146281473059E-4</v>
+        <v>6.1432466729166363E-4</v>
       </c>
       <c r="AU43">
         <f t="shared" ca="1" si="17"/>
-        <v>3.4268331002455452E-4</v>
+        <v>3.4269024945539827E-4</v>
       </c>
       <c r="AV43">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5461265671412082E-4</v>
+        <v>1.5461614138763928E-4</v>
       </c>
       <c r="AW43">
         <v>0</v>
@@ -35464,151 +35461,151 @@
     <row r="46" spans="3:49">
       <c r="I46">
         <f ca="1">(I34-I33)/0.2</f>
-        <v>-2.3449317107785219E-5</v>
+        <v>-2.3465783962415811E-5</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46:N46" ca="1" si="20">(J34-J33)/0.2</f>
-        <v>-3.7679377394322454E-5</v>
+        <v>-3.7700342939864293E-5</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="20"/>
-        <v>-6.9217510686889015E-5</v>
+        <v>-6.9248354142813529E-5</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="20"/>
-        <v>-1.3433044163054504E-4</v>
+        <v>-1.3437861516614496E-4</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="20"/>
-        <v>-2.744150032887302E-4</v>
+        <v>-2.7449391738194835E-4</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="20"/>
-        <v>-6.0310489233094224E-4</v>
+        <v>-6.0324356470842515E-4</v>
       </c>
       <c r="AC46">
         <f ca="1">(AC39-AC38)/0.2</f>
-        <v>1.5993840081730859</v>
+        <v>1.599382860086479</v>
       </c>
       <c r="AD46">
         <f t="shared" ref="AD46:AH46" ca="1" si="21">(AD39-AD38)/0.2</f>
-        <v>1.2876301986826078</v>
+        <v>1.2876292406342738</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="21"/>
-        <v>1.1827047537332125</v>
+        <v>1.1827037949583485</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="21"/>
-        <v>1.1827052153245026</v>
+        <v>1.1827041127571702</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="21"/>
-        <v>1.2876316556138601</v>
+        <v>1.287630256153941</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="21"/>
-        <v>1.5993867438776455</v>
+        <v>1.5993848150531509</v>
       </c>
     </row>
     <row r="47" spans="3:49">
       <c r="I47">
         <f ca="1">(I34-I35)/0.2</f>
-        <v>-6.6696566361152231E-5</v>
+        <v>-6.6726601566119561E-5</v>
       </c>
       <c r="J47">
         <f t="shared" ref="J47:N47" ca="1" si="22">(J34-J35)/0.2</f>
-        <v>-1.1441152176231781E-4</v>
+        <v>-1.1445163640333554E-4</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="22"/>
-        <v>-2.0638334340261633E-4</v>
+        <v>-2.0644147794585544E-4</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="22"/>
-        <v>-3.7840060677905672E-4</v>
+        <v>-3.7848749420955842E-4</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.0278322444668629E-4</v>
+        <v>-7.0291565226040294E-4</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.3387999667687346E-3</v>
+        <v>-1.339008544276835E-3</v>
       </c>
       <c r="AC47">
         <f ca="1">(AC39-AC40)/0.2</f>
-        <v>1.6273274845671648</v>
+        <v>1.6273268618337138</v>
       </c>
       <c r="AD47">
         <f t="shared" ref="AD47:AH47" ca="1" si="23">(AD39-AD40)/0.2</f>
-        <v>1.3081406359881875</v>
+        <v>1.3081401639263872</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="23"/>
-        <v>1.1991982823424718</v>
+        <v>1.1991978260692886</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="23"/>
-        <v>1.1991985335426791</v>
+        <v>1.1991980035014027</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="23"/>
-        <v>1.3081414608265012</v>
+        <v>1.3081407542041479</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="23"/>
-        <v>1.6273291661147216</v>
+        <v>1.6273280957522918</v>
       </c>
     </row>
     <row r="48" spans="3:49">
       <c r="I48">
         <f ca="1">I46+I47</f>
-        <v>-9.014588346893745E-5</v>
+        <v>-9.0192385528535372E-5</v>
       </c>
       <c r="J48">
         <f t="shared" ref="J48:N48" ca="1" si="24">J46+J47</f>
-        <v>-1.5209089915664027E-4</v>
+        <v>-1.5215197934319983E-4</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.7560085408950537E-4</v>
+        <v>-2.7568983208866899E-4</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.1273104840960173E-4</v>
+        <v>-5.1286610937570343E-4</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="24"/>
-        <v>-9.7719822773541655E-4</v>
+        <v>-9.7740956964235135E-4</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.9419048590996768E-3</v>
+        <v>-1.9422521089852603E-3</v>
       </c>
       <c r="AC48">
         <f ca="1">AC47+AC46</f>
-        <v>3.2267114927402507</v>
+        <v>3.2267097219201926</v>
       </c>
       <c r="AD48">
         <f t="shared" ref="AD48:AH48" ca="1" si="25">AD47+AD46</f>
-        <v>2.5957708346707955</v>
+        <v>2.5957694045606612</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="25"/>
-        <v>2.3819030360756841</v>
+        <v>2.3819016210276374</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="25"/>
-        <v>2.3819037488671819</v>
+        <v>2.3819021162585727</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="25"/>
-        <v>2.5957731164403612</v>
+        <v>2.5957710103580887</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="25"/>
-        <v>3.2267159099923672</v>
+        <v>3.2267129108054426</v>
       </c>
     </row>
     <row r="49" spans="9:35">
@@ -35652,143 +35649,143 @@
     <row r="50" spans="9:35">
       <c r="I50" s="2">
         <f ca="1">I49*I48</f>
-        <v>-7.9816858278475499E-16</v>
+        <v>-7.98580320754117E-16</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" ref="J50:N50" ca="1" si="26">J49*J48</f>
-        <v>-1.3466413857505182E-15</v>
+        <v>-1.3471822011939573E-15</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>-2.4402217234765697E-15</v>
+        <v>-2.4410095513923713E-15</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>-4.5398170000724626E-15</v>
+        <v>-4.5410128552325052E-15</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>-8.6522966387046853E-15</v>
+        <v>-8.6541678996414015E-15</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>-1.7193990337057459E-14</v>
+        <v>-1.7197064952762391E-14</v>
       </c>
       <c r="AC50" s="2">
         <f ca="1">AC49*AC48</f>
-        <v>2.8569909574442427E-11</v>
+        <v>2.8569893895269049E-11</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" ref="AD50:AH50" ca="1" si="27">AD49*AD48</f>
-        <v>2.2983442489163841E-11</v>
+        <v>2.2983429826700121E-11</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>2.1089816833292642E-11</v>
+        <v>2.1089804304191471E-11</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>2.1089823144482435E-11</v>
+        <v>2.1089808689059184E-11</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>2.2983462692380122E-11</v>
+        <v>2.2983444044732133E-11</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>2.856994868562228E-11</v>
+        <v>2.8569922130257965E-11</v>
       </c>
     </row>
     <row r="51" spans="9:35">
       <c r="I51" s="2">
         <f ca="1">(I50+J50)/2</f>
-        <v>-1.0724049842676366E-15</v>
+        <v>-1.0728812609740371E-15</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" ref="J51:M51" ca="1" si="28">(J50+K50)/2</f>
-        <v>-1.8934315546135439E-15</v>
+        <v>-1.8940958762931644E-15</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>-3.4900193617745162E-15</v>
+        <v>-3.4910112033124385E-15</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>-6.5960568193885743E-15</v>
+        <v>-6.597590377436953E-15</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>-1.2923143487881073E-14</v>
+        <v>-1.2925616426201897E-14</v>
       </c>
       <c r="AC51" s="2">
         <f ca="1">(AC50+AD50)/2</f>
-        <v>2.5776676031803134E-11</v>
+        <v>2.5776661860984585E-11</v>
       </c>
       <c r="AD51" s="2">
         <f t="shared" ref="AD51:AG51" ca="1" si="29">(AD50+AE50)/2</f>
-        <v>2.203662966122824E-11</v>
+        <v>2.2036617065445794E-11</v>
       </c>
       <c r="AE51" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>2.108981998888754E-11</v>
+        <v>2.1089806496625326E-11</v>
       </c>
       <c r="AF51" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>2.2036642918431277E-11</v>
+        <v>2.2036626366895657E-11</v>
       </c>
       <c r="AG51" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>2.5776705689001201E-11</v>
+        <v>2.5776683087495047E-11</v>
       </c>
     </row>
     <row r="52" spans="9:35">
       <c r="I52" s="2">
         <f ca="1">I51*0.2</f>
-        <v>-2.1448099685352733E-16</v>
+        <v>-2.1457625219480743E-16</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" ref="J52:M52" ca="1" si="30">J51*0.2</f>
-        <v>-3.7868631092270883E-16</v>
+        <v>-3.7881917525863289E-16</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" ca="1" si="30"/>
-        <v>-6.9800387235490323E-16</v>
+        <v>-6.9820224066248773E-16</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.3192113638777149E-15</v>
+        <v>-1.3195180754873908E-15</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" ca="1" si="30"/>
-        <v>-2.5846286975762148E-15</v>
+        <v>-2.5851232852403796E-15</v>
       </c>
       <c r="O52" s="2">
         <f ca="1">SUM(I52:M52)</f>
-        <v>-5.195011241585069E-15</v>
+        <v>-5.1962390288436983E-15</v>
       </c>
       <c r="AC52" s="2">
         <f ca="1">AC51*0.2</f>
-        <v>5.1553352063606273E-12</v>
+        <v>5.1553323721969169E-12</v>
       </c>
       <c r="AD52" s="2">
         <f t="shared" ref="AD52:AG52" ca="1" si="31">AD51*0.2</f>
-        <v>4.4073259322456482E-12</v>
+        <v>4.4073234130891592E-12</v>
       </c>
       <c r="AE52" s="2">
         <f t="shared" ca="1" si="31"/>
-        <v>4.2179639977775081E-12</v>
+        <v>4.2179612993250653E-12</v>
       </c>
       <c r="AF52" s="2">
         <f t="shared" ca="1" si="31"/>
-        <v>4.4073285836862559E-12</v>
+        <v>4.407325273379132E-12</v>
       </c>
       <c r="AG52" s="2">
         <f t="shared" ca="1" si="31"/>
-        <v>5.1553411378002407E-12</v>
+        <v>5.1553366174990101E-12</v>
       </c>
       <c r="AI52" s="2">
         <f ca="1">SUM(AC52:AG52)</f>
-        <v>2.3343294857870282E-11</v>
+        <v>2.3343278975489284E-11</v>
       </c>
     </row>
     <row r="53" spans="9:35">
@@ -35796,10 +35793,10 @@
         <v>15</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI53" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -35811,7 +35808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7382B712-D3EE-4EF3-BAEF-3C1B5772A96D}">
   <dimension ref="A1:AO47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
